--- a/Data/FiMs DeFi.xlsx
+++ b/Data/FiMs DeFi.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="966">
   <si>
     <t>Currency</t>
   </si>
@@ -384,31 +384,37 @@
     <t>CCLcWAJX6fubUqGyZWz8dyUGEddRj8h4XZZCNSDzMVx4</t>
   </si>
   <si>
+    <t>169802356</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>169.802356</t>
+  </si>
+  <si>
+    <t>6oBi6N1uZ7AvH2j6EgQNcFmmBXjTrMG2dnuYgvzySHAc</t>
+  </si>
+  <si>
+    <t>USD Coin</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/solana-labs/token-list/main/assets/mainnet/EPjFWdd5AufqSSqeM2qN1xzybapC8G4wEGGkZwyTDt1v/logo.png</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>2039280</t>
+  </si>
+  <si>
+    <t>USDC</t>
+  </si>
+  <si>
+    <t>D84wZMJRoievKkRaquXXrYSMuU5mA46RznCSrJ9HSK1u</t>
+  </si>
+  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6oBi6N1uZ7AvH2j6EgQNcFmmBXjTrMG2dnuYgvzySHAc</t>
-  </si>
-  <si>
-    <t>USD Coin</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/solana-labs/token-list/main/assets/mainnet/EPjFWdd5AufqSSqeM2qN1xzybapC8G4wEGGkZwyTDt1v/logo.png</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>2039280</t>
-  </si>
-  <si>
-    <t>USDC</t>
-  </si>
-  <si>
-    <t>D84wZMJRoievKkRaquXXrYSMuU5mA46RznCSrJ9HSK1u</t>
   </si>
   <si>
     <t>9</t>
@@ -948,760 +954,775 @@
     <t>BTC</t>
   </si>
   <si>
-    <t>1.177641456716864</t>
-  </si>
-  <si>
-    <t>20278</t>
-  </si>
-  <si>
-    <t>179.728978</t>
+    <t>1.1802003978925313</t>
+  </si>
+  <si>
+    <t>21103</t>
+  </si>
+  <si>
+    <t>137.672297</t>
   </si>
   <si>
     <t>800</t>
   </si>
   <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_sol</t>
+  </si>
+  <si>
+    <t>1.2336689777266072</t>
+  </si>
+  <si>
+    <t>33.27</t>
+  </si>
+  <si>
+    <t>179264.243672267</t>
+  </si>
+  <si>
+    <t>290000</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_sol_high</t>
+  </si>
+  <si>
+    <t>1.2009444443962685</t>
+  </si>
+  <si>
+    <t>31465.338155727</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_marinade</t>
+  </si>
+  <si>
+    <t>6UA3yn28XecAHLTwoCtjfzy3WcyQj1x13bxnH8urUiKt</t>
+  </si>
+  <si>
+    <t>fcmSOL</t>
+  </si>
+  <si>
+    <t>mSOL</t>
+  </si>
+  <si>
+    <t>1.1899507649387038</t>
+  </si>
+  <si>
+    <t>35.79</t>
+  </si>
+  <si>
+    <t>67316.975199477</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_samo</t>
+  </si>
+  <si>
+    <t>9Wtfq4A7nGxQ6c89xhPBj4ipQyj1jeXntPBzDQknhHas</t>
+  </si>
+  <si>
+    <t>fcSAMO</t>
+  </si>
+  <si>
+    <t>SAMO</t>
+  </si>
+  <si>
+    <t>0.8234576937549749</t>
+  </si>
+  <si>
+    <t>0.0091557</t>
+  </si>
+  <si>
+    <t>11986944.198805215</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_near</t>
+  </si>
+  <si>
+    <t>9w6ntom9RfZLxX1uVdmjD6yHi8VJezJQYVWP9pMTHXfd</t>
+  </si>
+  <si>
+    <t>fcNEAR</t>
+  </si>
+  <si>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>688.278651756</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_eth</t>
+  </si>
+  <si>
+    <t>GjnoPUjQiEUYWuKAbMax2cM1Eony8Yutc133wuSun9hS</t>
+  </si>
+  <si>
+    <t>fcETH</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>1.0168505340035656</t>
+  </si>
+  <si>
+    <t>1644.65</t>
+  </si>
+  <si>
+    <t>721.19952015</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_ftt</t>
+  </si>
+  <si>
+    <t>7wDh4VCTPwx41kvbLE6fkFgMEjnqw7NpGJvQtNabCm2B</t>
+  </si>
+  <si>
+    <t>fcFTT</t>
+  </si>
+  <si>
+    <t>FTT</t>
+  </si>
+  <si>
+    <t>1.1565142100118802</t>
+  </si>
+  <si>
+    <t>25.54</t>
+  </si>
+  <si>
+    <t>155100.05789325</t>
+  </si>
+  <si>
+    <t>185000</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_srm</t>
+  </si>
+  <si>
+    <t>5SLqZSywodLS8ih6U2AAioZrxpgR149hR8SApmCB7r5X</t>
+  </si>
+  <si>
+    <t>fcSRM</t>
+  </si>
+  <si>
+    <t>SRM</t>
+  </si>
+  <si>
+    <t>0.7819935895826876</t>
+  </si>
+  <si>
+    <t>0.782146</t>
+  </si>
+  <si>
+    <t>3928122.678387</t>
+  </si>
+  <si>
+    <t>5690000</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_mngo</t>
+  </si>
+  <si>
+    <t>4sTuzTYfcE2NF7zy6Sy8XhVcNLa6JQSLrx3roy97n4sD</t>
+  </si>
+  <si>
+    <t>fcMNGO</t>
+  </si>
+  <si>
+    <t>MNGO</t>
+  </si>
+  <si>
+    <t>1.0860544977716236</t>
+  </si>
+  <si>
+    <t>0.01645407</t>
+  </si>
+  <si>
+    <t>3615810.075287</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_socean</t>
+  </si>
+  <si>
+    <t>5VmdHqvRMbXivuC34w4Hux9zb1y9moiBEQmXDrTR1kV</t>
+  </si>
+  <si>
+    <t>fcscnSOL</t>
+  </si>
+  <si>
+    <t>scnSOL</t>
+  </si>
+  <si>
+    <t>1.1618900738312805</t>
+  </si>
+  <si>
+    <t>36.17</t>
+  </si>
+  <si>
+    <t>13659.347343649</t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_sbr</t>
+  </si>
+  <si>
+    <t>DPMCwE9z9jXaDVDti5aKhdgCWGgsvioz6ZvB9eZjH7UE</t>
+  </si>
+  <si>
+    <t>fcSBR</t>
+  </si>
+  <si>
+    <t>SBR</t>
+  </si>
+  <si>
+    <t>1.2291989998994992</t>
+  </si>
+  <si>
+    <t>0.00209109</t>
+  </si>
+  <si>
+    <t>9408462.661774</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_luna</t>
+  </si>
+  <si>
+    <t>95sn4kgeJnnBfRCD8S2quu4HS9Y6vb7JDuXrarnmEjYE</t>
+  </si>
+  <si>
+    <t>fcLUNA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>1.0605569962957027</t>
+  </si>
+  <si>
+    <t>0.00022724</t>
+  </si>
+  <si>
+    <t>129584.696908</t>
+  </si>
+  <si>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_ray</t>
+  </si>
+  <si>
+    <t>SoAnGsHVqSyaN4MjWoPCcftC1V6oSeNxLJjF5TXrtuL</t>
+  </si>
+  <si>
+    <t>fcRAY</t>
+  </si>
+  <si>
+    <t>RAY</t>
+  </si>
+  <si>
+    <t>1.1046664657865746</t>
+  </si>
+  <si>
+    <t>0.526003</t>
+  </si>
+  <si>
+    <t>156434.719769</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_step</t>
+  </si>
+  <si>
+    <t>AQFLXqLLofcbUCoi5HPfuuvX6vMPafubZfBNBMumnKq2</t>
+  </si>
+  <si>
+    <t>fcSTEP</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>1.0613261459416685</t>
+  </si>
+  <si>
+    <t>0.03103632</t>
+  </si>
+  <si>
+    <t>5641650.862786024</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_stsol</t>
+  </si>
+  <si>
+    <t>EPoDdEcDQ478YNRAiMYMHLs7mEnmo5z9322Q2D5exKFU</t>
+  </si>
+  <si>
+    <t>fcstSOL</t>
+  </si>
+  <si>
+    <t>stSOL</t>
+  </si>
+  <si>
+    <t>1.1121067251581984</t>
+  </si>
+  <si>
+    <t>35.51</t>
+  </si>
+  <si>
+    <t>37990.943891924</t>
+  </si>
+  <si>
+    <t>69000</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_avax</t>
+  </si>
+  <si>
+    <t>HLfkEc6E2HEcABaWm3QZSfDvswzXjh1onF9xEzUAtWNS</t>
+  </si>
+  <si>
+    <t>fcAVAX</t>
+  </si>
+  <si>
+    <t>AVAX</t>
+  </si>
+  <si>
+    <t>1.1382701943348856</t>
+  </si>
+  <si>
+    <t>19.28</t>
+  </si>
+  <si>
+    <t>11887.69923804</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_aptos</t>
+  </si>
+  <si>
+    <t>BVdUrHg3W3NRW4BPWEH1EzXhBQgpp17QEyW2iCHmqwJq</t>
+  </si>
+  <si>
+    <t>fcAPT</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>1.0122286885973504</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>5360.27409302</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_luna</t>
+  </si>
+  <si>
+    <t>74ozhToAS71nDVBtFZMMucdkNB95tV2o5fhtFGQeixwS</t>
+  </si>
+  <si>
+    <t>fpLUNA</t>
+  </si>
+  <si>
+    <t>UST</t>
+  </si>
+  <si>
+    <t>0.000005787070097987454</t>
+  </si>
+  <si>
+    <t>0.0357377</t>
+  </si>
+  <si>
+    <t>131.561125</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_sol</t>
+  </si>
+  <si>
+    <t>EBPM7fvPN8EuA65Uc7DT9eGyDUZ1sqMLM8Rb8y2YxBYU</t>
+  </si>
+  <si>
+    <t>fpSOL</t>
+  </si>
+  <si>
+    <t>0.7657026764811367</t>
+  </si>
+  <si>
+    <t>938100.872778</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_sol_high</t>
+  </si>
+  <si>
+    <t>G8jsAWUA2KdDn7XmV1sBqUdbEXESaPdjPWDEYCsnkRX2</t>
+  </si>
+  <si>
+    <t>fpSOLHigh</t>
+  </si>
+  <si>
+    <t>0.8408013441133438</t>
+  </si>
+  <si>
+    <t>1394555.989265</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_mngo</t>
+  </si>
+  <si>
+    <t>CxHG1tPkeEHsAVmPF2UrjZK3W719J5DGFgMaLtUkBoeP</t>
+  </si>
+  <si>
+    <t>fpMNGO</t>
+  </si>
+  <si>
+    <t>0.7160698048978926</t>
+  </si>
+  <si>
+    <t>50180.740049</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_btc</t>
+  </si>
+  <si>
+    <t>THjfJ7GUeW6aMU6dzYYFVs5LnKNvmPzgk2wbh3bWagC</t>
+  </si>
+  <si>
+    <t>fpBTC</t>
+  </si>
+  <si>
+    <t>0.9170516797784123</t>
+  </si>
+  <si>
+    <t>444922.926229</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_tsUSDC</t>
+  </si>
+  <si>
+    <t>Fw8mw9zNyfngvBYuS2L6XWfvFE8fExQ3apZVw4Ery5oy</t>
+  </si>
+  <si>
+    <t>fptsUSDCSOL</t>
+  </si>
+  <si>
+    <t>tsUSDC</t>
+  </si>
+  <si>
+    <t>0.7965103498890101</t>
+  </si>
+  <si>
+    <t>0.999317</t>
+  </si>
+  <si>
+    <t>82316.714094</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_pai</t>
+  </si>
+  <si>
+    <t>8R2L3r6N6odiUkztEzhxr9wkFio8UikYWbp36qdZvA9U</t>
+  </si>
+  <si>
+    <t>fpPAISOL</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>0.7341053417807714</t>
+  </si>
+  <si>
+    <t>176498.406621</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_uxd</t>
+  </si>
+  <si>
+    <t>7q415NG2DBRLTcTqMdRLWZ6FTVUzSunjfsjMkT3xneNL</t>
+  </si>
+  <si>
+    <t>fpUXDSOL</t>
+  </si>
+  <si>
+    <t>UXD</t>
+  </si>
+  <si>
+    <t>202.445251</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_eth</t>
+  </si>
+  <si>
+    <t>2uTkms42P62dJ7JRaefc1HFkvyBeMP28J6MPmH1gVHoT</t>
+  </si>
+  <si>
+    <t>fpETH</t>
+  </si>
+  <si>
+    <t>0.7854633743696247</t>
+  </si>
+  <si>
+    <t>251858.070894</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>mainnet_income_perp_btc</t>
+  </si>
+  <si>
+    <t>1.140621984916176</t>
+  </si>
+  <si>
+    <t>1085864.1117086753</t>
+  </si>
+  <si>
+    <t>1100000</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>mainnet_basis_usdc_sol</t>
+  </si>
+  <si>
+    <t>5CNnTMrMmWHnpswWYdFANvP6QCu58azbRG1enAjeWohx</t>
+  </si>
+  <si>
+    <t>fbasisSOL</t>
+  </si>
+  <si>
+    <t>1.063178110195608</t>
+  </si>
+  <si>
+    <t>210339.52527227323</t>
+  </si>
+  <si>
+    <t>mainnet_basis_usdc_btc</t>
+  </si>
+  <si>
+    <t>GjHfbkNE4WbCeiyq8SteXJgtgNH46zWX7zXMKjPbL4Py</t>
+  </si>
+  <si>
+    <t>fbasisBTC</t>
+  </si>
+  <si>
+    <t>1.0093439721807551</t>
+  </si>
+  <si>
+    <t>23602.235576</t>
+  </si>
+  <si>
+    <t>mainnet_protection_usdc_sol</t>
+  </si>
+  <si>
+    <t>1.0049828900311923</t>
+  </si>
+  <si>
+    <t>289221.201224</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_sol_step_circuits</t>
+  </si>
+  <si>
+    <t>FGyxuV712gvc8DtxBrSSFXAU6yfqEzqs2intBYUNobWo</t>
+  </si>
+  <si>
+    <t>fcSOL_StepFinanceTreasury</t>
+  </si>
+  <si>
+    <t>0.0026360439999989745</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_btc_step_circuits</t>
+  </si>
+  <si>
+    <t>5TMXqdmLGfdbmeWDQ1BxZ16xxTcHTA766gnojnS1Cx2g</t>
+  </si>
+  <si>
+    <t>fcBTC_StepFinanceTreasury</t>
+  </si>
+  <si>
+    <t>1.040330309135473</t>
+  </si>
+  <si>
+    <t>81.06982</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_sol_step_circuits</t>
+  </si>
+  <si>
+    <t>Bikt7D3nMQmJSpxX7oczCDKgevrpWk3g4D3VhQZzqAT</t>
+  </si>
+  <si>
+    <t>fpSOL_StepFinanceTreasury</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>mainnet_income_call_sol_parrot_circuits</t>
+  </si>
+  <si>
+    <t>89JuYPSHEhskTvVf4rkdfmXyr6bdNA6Q21XtjSU7Urdi</t>
+  </si>
+  <si>
+    <t>fcSOL_ParrotTreasury</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_sol_parrot_circuits</t>
+  </si>
+  <si>
+    <t>J1TX6c1R6WykW2wonvrL6xA2g8vZ2FLDqDDF1mLYrMYK</t>
+  </si>
+  <si>
+    <t>fpSOL_ParrotTreasury</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_btc_step_circuits</t>
+  </si>
+  <si>
+    <t>ET4nQ6we7KDemfzni8dy2EkNCuYo1RryiRPjC6XwnnC3</t>
+  </si>
+  <si>
+    <t>fpBTC_StepFinanceTreasury</t>
+  </si>
+  <si>
+    <t>mainnet_income_put_btc_circuits_e262dc86</t>
+  </si>
+  <si>
+    <t>sMFGiogTQCHXyC27MoUZvPtNsQcvWesYK3H8TYQNzoC</t>
+  </si>
+  <si>
+    <t>fpBTC_e262dc86</t>
+  </si>
+  <si>
+    <t>1.0070975239381676</t>
+  </si>
+  <si>
+    <t>30182.927134</t>
+  </si>
+  <si>
     <t>0.25</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_sol</t>
-  </si>
-  <si>
-    <t>1.231597294640359</t>
-  </si>
-  <si>
-    <t>31.16</t>
-  </si>
-  <si>
-    <t>180184.559726476</t>
-  </si>
-  <si>
-    <t>290000</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_sol_high</t>
-  </si>
-  <si>
-    <t>1.1969145249127917</t>
-  </si>
-  <si>
-    <t>33859.768070235</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_marinade</t>
-  </si>
-  <si>
-    <t>6UA3yn28XecAHLTwoCtjfzy3WcyQj1x13bxnH8urUiKt</t>
-  </si>
-  <si>
-    <t>fcmSOL</t>
-  </si>
-  <si>
-    <t>mSOL</t>
-  </si>
-  <si>
-    <t>1.1877791127825073</t>
-  </si>
-  <si>
-    <t>33.46</t>
-  </si>
-  <si>
-    <t>68537.143372197</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_samo</t>
-  </si>
-  <si>
-    <t>9Wtfq4A7nGxQ6c89xhPBj4ipQyj1jeXntPBzDQknhHas</t>
-  </si>
-  <si>
-    <t>fcSAMO</t>
-  </si>
-  <si>
-    <t>SAMO</t>
-  </si>
-  <si>
-    <t>0.8189570409067526</t>
-  </si>
-  <si>
-    <t>0.00846677</t>
-  </si>
-  <si>
-    <t>11921428.902805215</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_near</t>
-  </si>
-  <si>
-    <t>9w6ntom9RfZLxX1uVdmjD6yHi8VJezJQYVWP9pMTHXfd</t>
-  </si>
-  <si>
-    <t>fcNEAR</t>
-  </si>
-  <si>
-    <t>NEAR</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>688.278651756</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_eth</t>
-  </si>
-  <si>
-    <t>GjnoPUjQiEUYWuKAbMax2cM1Eony8Yutc133wuSun9hS</t>
-  </si>
-  <si>
-    <t>fcETH</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>1.0144975192937604</t>
-  </si>
-  <si>
-    <t>1539.12</t>
-  </si>
-  <si>
-    <t>899.13157899</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_ftt</t>
-  </si>
-  <si>
-    <t>7wDh4VCTPwx41kvbLE6fkFgMEjnqw7NpGJvQtNabCm2B</t>
-  </si>
-  <si>
-    <t>fcFTT</t>
-  </si>
-  <si>
-    <t>FTT</t>
-  </si>
-  <si>
-    <t>1.154740958918444</t>
-  </si>
-  <si>
-    <t>24.47</t>
-  </si>
-  <si>
-    <t>156216.1081014</t>
-  </si>
-  <si>
-    <t>185000</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_srm</t>
-  </si>
-  <si>
-    <t>5SLqZSywodLS8ih6U2AAioZrxpgR149hR8SApmCB7r5X</t>
-  </si>
-  <si>
-    <t>fcSRM</t>
-  </si>
-  <si>
-    <t>SRM</t>
-  </si>
-  <si>
-    <t>0.7793743328573709</t>
-  </si>
-  <si>
-    <t>0.751888</t>
-  </si>
-  <si>
-    <t>3921750.609544</t>
-  </si>
-  <si>
-    <t>5690000</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_mngo</t>
-  </si>
-  <si>
-    <t>4sTuzTYfcE2NF7zy6Sy8XhVcNLa6JQSLrx3roy97n4sD</t>
-  </si>
-  <si>
-    <t>fcMNGO</t>
-  </si>
-  <si>
-    <t>MNGO</t>
-  </si>
-  <si>
-    <t>1.0860544977716236</t>
-  </si>
-  <si>
-    <t>0.01592105</t>
-  </si>
-  <si>
-    <t>3615810.075287</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_socean</t>
-  </si>
-  <si>
-    <t>5VmdHqvRMbXivuC34w4Hux9zb1y9moiBEQmXDrTR1kV</t>
-  </si>
-  <si>
-    <t>fcscnSOL</t>
-  </si>
-  <si>
-    <t>scnSOL</t>
-  </si>
-  <si>
-    <t>1.159934299973894</t>
-  </si>
-  <si>
-    <t>33.51</t>
-  </si>
-  <si>
-    <t>13641.432148563</t>
-  </si>
-  <si>
-    <t>42000</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_sbr</t>
-  </si>
-  <si>
-    <t>DPMCwE9z9jXaDVDti5aKhdgCWGgsvioz6ZvB9eZjH7UE</t>
-  </si>
-  <si>
-    <t>fcSBR</t>
-  </si>
-  <si>
-    <t>SBR</t>
-  </si>
-  <si>
-    <t>1.2291989998992385</t>
-  </si>
-  <si>
-    <t>0.00219426</t>
-  </si>
-  <si>
-    <t>9443490.580645</t>
-  </si>
-  <si>
-    <t>80000000</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_luna</t>
-  </si>
-  <si>
-    <t>95sn4kgeJnnBfRCD8S2quu4HS9Y6vb7JDuXrarnmEjYE</t>
-  </si>
-  <si>
-    <t>fcLUNA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>1.0605569962957027</t>
-  </si>
-  <si>
-    <t>0.00022159</t>
-  </si>
-  <si>
-    <t>129584.696908</t>
-  </si>
-  <si>
-    <t>180000</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_ray</t>
-  </si>
-  <si>
-    <t>SoAnGsHVqSyaN4MjWoPCcftC1V6oSeNxLJjF5TXrtuL</t>
-  </si>
-  <si>
-    <t>fcRAY</t>
-  </si>
-  <si>
-    <t>RAY</t>
-  </si>
-  <si>
-    <t>1.0987889210316975</t>
-  </si>
-  <si>
-    <t>0.496544</t>
-  </si>
-  <si>
-    <t>155636.658869</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_step</t>
-  </si>
-  <si>
-    <t>AQFLXqLLofcbUCoi5HPfuuvX6vMPafubZfBNBMumnKq2</t>
-  </si>
-  <si>
-    <t>fcSTEP</t>
-  </si>
-  <si>
-    <t>STEP</t>
-  </si>
-  <si>
-    <t>1.0597378119608034</t>
-  </si>
-  <si>
-    <t>0.0291057</t>
-  </si>
-  <si>
-    <t>5633221.009786024</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_stsol</t>
-  </si>
-  <si>
-    <t>EPoDdEcDQ478YNRAiMYMHLs7mEnmo5z9322Q2D5exKFU</t>
-  </si>
-  <si>
-    <t>fcstSOL</t>
-  </si>
-  <si>
-    <t>stSOL</t>
-  </si>
-  <si>
-    <t>1.1102041688848887</t>
-  </si>
-  <si>
-    <t>33.21</t>
-  </si>
-  <si>
-    <t>38008.344016102</t>
-  </si>
-  <si>
-    <t>69000</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_avax</t>
-  </si>
-  <si>
-    <t>HLfkEc6E2HEcABaWm3QZSfDvswzXjh1onF9xEzUAtWNS</t>
-  </si>
-  <si>
-    <t>fcAVAX</t>
-  </si>
-  <si>
-    <t>AVAX</t>
-  </si>
-  <si>
-    <t>1.137010072240902</t>
-  </si>
-  <si>
-    <t>18.14</t>
-  </si>
-  <si>
-    <t>12188.54603818</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_aptos</t>
-  </si>
-  <si>
-    <t>BVdUrHg3W3NRW4BPWEH1EzXhBQgpp17QEyW2iCHmqwJq</t>
-  </si>
-  <si>
-    <t>fcAPT</t>
-  </si>
-  <si>
-    <t>APT</t>
-  </si>
-  <si>
-    <t>1.0049775749058214</t>
-  </si>
-  <si>
-    <t>7.24</t>
-  </si>
-  <si>
-    <t>5340.256245</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_luna</t>
-  </si>
-  <si>
-    <t>74ozhToAS71nDVBtFZMMucdkNB95tV2o5fhtFGQeixwS</t>
-  </si>
-  <si>
-    <t>fpLUNA</t>
-  </si>
-  <si>
-    <t>UST</t>
-  </si>
-  <si>
-    <t>0.000005787070097987454</t>
-  </si>
-  <si>
-    <t>0.03532612</t>
-  </si>
-  <si>
-    <t>131.561125</t>
-  </si>
-  <si>
-    <t>9000000</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_sol</t>
-  </si>
-  <si>
-    <t>EBPM7fvPN8EuA65Uc7DT9eGyDUZ1sqMLM8Rb8y2YxBYU</t>
-  </si>
-  <si>
-    <t>fpSOL</t>
-  </si>
-  <si>
-    <t>0.76384158700085</t>
-  </si>
-  <si>
-    <t>966650.989984</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_sol_high</t>
-  </si>
-  <si>
-    <t>G8jsAWUA2KdDn7XmV1sBqUdbEXESaPdjPWDEYCsnkRX2</t>
-  </si>
-  <si>
-    <t>fpSOLHigh</t>
-  </si>
-  <si>
-    <t>0.8380870524505502</t>
-  </si>
-  <si>
-    <t>1401492.732518</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_mngo</t>
-  </si>
-  <si>
-    <t>CxHG1tPkeEHsAVmPF2UrjZK3W719J5DGFgMaLtUkBoeP</t>
-  </si>
-  <si>
-    <t>fpMNGO</t>
-  </si>
-  <si>
-    <t>0.7160698048978926</t>
-  </si>
-  <si>
-    <t>50180.740049</t>
-  </si>
-  <si>
-    <t>550000</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_btc</t>
-  </si>
-  <si>
-    <t>THjfJ7GUeW6aMU6dzYYFVs5LnKNvmPzgk2wbh3bWagC</t>
-  </si>
-  <si>
-    <t>fpBTC</t>
-  </si>
-  <si>
-    <t>0.9153080598153157</t>
-  </si>
-  <si>
-    <t>447596.398477</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_tsUSDC</t>
-  </si>
-  <si>
-    <t>Fw8mw9zNyfngvBYuS2L6XWfvFE8fExQ3apZVw4Ery5oy</t>
-  </si>
-  <si>
-    <t>fptsUSDCSOL</t>
-  </si>
-  <si>
-    <t>tsUSDC</t>
-  </si>
-  <si>
-    <t>0.7965103498780564</t>
-  </si>
-  <si>
-    <t>110789.717327</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_pai</t>
-  </si>
-  <si>
-    <t>8R2L3r6N6odiUkztEzhxr9wkFio8UikYWbp36qdZvA9U</t>
-  </si>
-  <si>
-    <t>fpPAISOL</t>
-  </si>
-  <si>
-    <t>PAI</t>
-  </si>
-  <si>
-    <t>0.7324622811592064</t>
-  </si>
-  <si>
-    <t>176103.406621</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_uxd</t>
-  </si>
-  <si>
-    <t>7q415NG2DBRLTcTqMdRLWZ6FTVUzSunjfsjMkT3xneNL</t>
-  </si>
-  <si>
-    <t>fpUXDSOL</t>
-  </si>
-  <si>
-    <t>UXD</t>
-  </si>
-  <si>
-    <t>202.445251</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_eth</t>
-  </si>
-  <si>
-    <t>2uTkms42P62dJ7JRaefc1HFkvyBeMP28J6MPmH1gVHoT</t>
-  </si>
-  <si>
-    <t>fpETH</t>
-  </si>
-  <si>
-    <t>0.7829392026600138</t>
-  </si>
-  <si>
-    <t>251556.096208</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>mainnet_income_perp_btc</t>
-  </si>
-  <si>
-    <t>1.1305929155745884</t>
-  </si>
-  <si>
-    <t>1076316.508194205</t>
-  </si>
-  <si>
-    <t>1100000</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>mainnet_basis_usdc_sol</t>
-  </si>
-  <si>
-    <t>5CNnTMrMmWHnpswWYdFANvP6QCu58azbRG1enAjeWohx</t>
-  </si>
-  <si>
-    <t>fbasisSOL</t>
-  </si>
-  <si>
-    <t>1.063178110195608</t>
-  </si>
-  <si>
-    <t>210339.52527227323</t>
-  </si>
-  <si>
-    <t>mainnet_basis_usdc_btc</t>
-  </si>
-  <si>
-    <t>GjHfbkNE4WbCeiyq8SteXJgtgNH46zWX7zXMKjPbL4Py</t>
-  </si>
-  <si>
-    <t>fbasisBTC</t>
-  </si>
-  <si>
-    <t>1.0093439721807551</t>
-  </si>
-  <si>
-    <t>23602.235576</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>mainnet_protection_usdc_sol</t>
-  </si>
-  <si>
-    <t>1.0049828900311923</t>
-  </si>
-  <si>
-    <t>289221.201224</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_sol_step_circuits</t>
-  </si>
-  <si>
-    <t>FGyxuV712gvc8DtxBrSSFXAU6yfqEzqs2intBYUNobWo</t>
-  </si>
-  <si>
-    <t>fcSOL_StepFinanceTreasury</t>
-  </si>
-  <si>
-    <t>0.0026360439999989745</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_btc_step_circuits</t>
-  </si>
-  <si>
-    <t>5TMXqdmLGfdbmeWDQ1BxZ16xxTcHTA766gnojnS1Cx2g</t>
-  </si>
-  <si>
-    <t>fcBTC_StepFinanceTreasury</t>
-  </si>
-  <si>
-    <t>1.0387647413605041</t>
-  </si>
-  <si>
-    <t>80.94782</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_sol_step_circuits</t>
-  </si>
-  <si>
-    <t>Bikt7D3nMQmJSpxX7oczCDKgevrpWk3g4D3VhQZzqAT</t>
-  </si>
-  <si>
-    <t>fpSOL_StepFinanceTreasury</t>
-  </si>
-  <si>
-    <t>11000000</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>mainnet_income_call_sol_parrot_circuits</t>
-  </si>
-  <si>
-    <t>89JuYPSHEhskTvVf4rkdfmXyr6bdNA6Q21XtjSU7Urdi</t>
-  </si>
-  <si>
-    <t>fcSOL_ParrotTreasury</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_sol_parrot_circuits</t>
-  </si>
-  <si>
-    <t>J1TX6c1R6WykW2wonvrL6xA2g8vZ2FLDqDDF1mLYrMYK</t>
-  </si>
-  <si>
-    <t>fpSOL_ParrotTreasury</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_btc_step_circuits</t>
-  </si>
-  <si>
-    <t>ET4nQ6we7KDemfzni8dy2EkNCuYo1RryiRPjC6XwnnC3</t>
-  </si>
-  <si>
-    <t>fpBTC_StepFinanceTreasury</t>
-  </si>
-  <si>
-    <t>mainnet_income_put_btc_circuits_e262dc86</t>
-  </si>
-  <si>
-    <t>sMFGiogTQCHXyC27MoUZvPtNsQcvWesYK3H8TYQNzoC</t>
-  </si>
-  <si>
-    <t>fpBTC_e262dc86</t>
-  </si>
-  <si>
-    <t>1.0052389835496127</t>
-  </si>
-  <si>
-    <t>30127.226283</t>
   </si>
   <si>
     <t>mainnet_income_put_sol_uxd_circuits</t>
@@ -4446,7 +4467,7 @@
       </c>
       <c r="B2" s="5">
         <f t="array" ref="B2">INDEX(Transfer!$G:$G,2)-$B$3</f>
-        <v>5476.437314</v>
+        <v>5471.708326</v>
       </c>
       <c r="C2" s="6">
         <f>Transfer!E2</f>
@@ -4467,7 +4488,7 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B4" si="2">$C3/$C$10</f>
-        <v>-65.89187474</v>
+        <v>-61.16288671</v>
       </c>
       <c r="C3" s="6">
         <f>-Transfer!$H$2</f>
@@ -4488,19 +4509,19 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" si="2"/>
-        <v>-774.2565837</v>
+        <v>-758.6465544</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:D4" si="3">C$8-(C$2+C$3+C$5)</f>
-        <v>-24133.57771</v>
+        <v>-25475.3513</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="3"/>
-        <v>311.1607575</v>
+        <v>-5066.739218</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="1"/>
-        <v>-0.0780278345</v>
+        <v>-0.08236600964</v>
       </c>
     </row>
     <row r="5">
@@ -4512,15 +4533,15 @@
       </c>
       <c r="C5" s="12">
         <f>(C$10-C$9)*Transfer!$G$2</f>
-        <v>-138593.9189</v>
+        <v>-125554.5044</v>
       </c>
       <c r="D5" s="13">
         <f>(D$10-D$9)*Transfer!$G$2</f>
-        <v>-142150.525</v>
+        <v>-126993.3389</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>-0.4480969832</v>
+        <v>-0.4059384069</v>
       </c>
     </row>
     <row r="6">
@@ -4530,19 +4551,19 @@
       </c>
       <c r="B6" s="16">
         <f t="shared" ref="B6:B7" si="4">C6/$C$10</f>
-        <v>4636.288855</v>
+        <v>4651.898885</v>
       </c>
       <c r="C6" s="17">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SUMIFS(Token!$G:$G,Token!$A:$A,INDEX(SPLIT(A6,""()""),2))*Index(Price!$F:$F,2)*Index(Price!$C:$C,2)"),144513.12362584655)</f>
-        <v>144513.1236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SUMIFS(Token!$G:$G,Token!$A:$A,INDEX(SPLIT(A6,""()""),2))*Index(Price!$F:$F,2)*Index(Price!$C:$C,2)"),156210.76455110376)</f>
+        <v>156210.7646</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D7" si="5">$B6*D$10</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
-        <v>0.4672347476</v>
+        <v>0.5050551488</v>
       </c>
     </row>
     <row r="7">
@@ -4573,19 +4594,19 @@
       </c>
       <c r="B8" s="19">
         <f t="shared" ref="B8:E8" si="6">SUM(OFFSET(B:B,ROW(B$5),0,ROW()-1-ROW(B$5)))</f>
-        <v>4636.288855</v>
+        <v>4651.898885</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" si="6"/>
-        <v>144513.1236</v>
+        <v>156210.7646</v>
       </c>
       <c r="D8" s="21">
         <f t="shared" si="6"/>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="E8" s="22">
         <f t="shared" si="6"/>
-        <v>0.4672347476</v>
+        <v>0.5050551488</v>
       </c>
     </row>
     <row r="9">
@@ -4594,41 +4615,41 @@
       </c>
       <c r="B9" s="23">
         <f t="array" ref="B9">INDEX(Price!$B:$B,2)</f>
-        <v>0.97498</v>
+        <v>0.98867</v>
       </c>
       <c r="C9" s="17">
         <f>Transfer!$D$2</f>
         <v>56.78551704</v>
       </c>
       <c r="D9" s="24">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("$C9/HLOOKUP(""*""&amp;INDEX(SPLIT(D$1,"" ""),1)&amp;""*"",Price!$A:$CD,2,0)"),58.24275066398025)</f>
-        <v>58.24275066</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("$C9/HLOOKUP(""*""&amp;INDEX(SPLIT(D$1,"" ""),1)&amp;""*"",Price!$A:$CD,2,0)"),57.436269981255094)</f>
+        <v>57.43626998</v>
       </c>
       <c r="E9" s="8">
         <f>-(1-$C$10/$C$9)</f>
-        <v>-0.451092433</v>
+        <v>-0.408652034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""Price @ ""&amp;TO_TEXT(MIN(OFFSET(PriceCache!$C:$C,1,0)))&amp;PriceCache!$D$2"),"Price @ 11/4/2022 2:11:57")</f>
-        <v>Price @ 11/4/2022 2:11:57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""Price @ ""&amp;TO_TEXT(MIN(OFFSET(PriceCache!$C:$C,1,0)))&amp;PriceCache!$D$2"),"Price @ 11/4/2022 16:41:57")</f>
+        <v>Price @ 11/4/2022 16:41:57</v>
       </c>
       <c r="B10" s="17">
         <f t="array" ref="B10">ImportJSON("https://api.friktion.fi/one_liner_v2?GlobalIDs=mainnet_income_call_sol_high"&amp;INDEX(PriceCache!D:D,2),"/breakeven","noHeaders")*1</f>
-        <v>36.14</v>
+        <v>36.29</v>
       </c>
       <c r="C10" s="25">
         <f>IF(1,HLOOKUP("*("&amp;$B$1&amp;")",Price!$A:$CD,2,0),$C$9*1)</f>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="D10" s="24">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("$C10/HLOOKUP(""*""&amp;INDEX(SPLIT(D$1,"" ""),1)&amp;""*"",Price!$A:$CD,2,0)"),31.969886561775624)</f>
-        <v>31.96988656</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("$C10/HLOOKUP(""*""&amp;INDEX(SPLIT(D$1,"" ""),1)&amp;""*"",Price!$A:$CD,2,0)"),33.96482142676525)</f>
+        <v>33.96482143</v>
       </c>
       <c r="E10" s="8">
         <f>-1+$B$10/$C$10</f>
-        <v>0.1594481874</v>
+        <v>0.08070279929</v>
       </c>
     </row>
     <row r="11">
@@ -4637,19 +4658,19 @@
       </c>
       <c r="B11" s="26">
         <f t="shared" ref="B11:E11" si="7">B8-B2</f>
-        <v>-840.1484584</v>
+        <v>-819.8094411</v>
       </c>
       <c r="C11" s="27">
         <f t="shared" si="7"/>
-        <v>-164781.3464</v>
+        <v>-153083.7054</v>
       </c>
       <c r="D11" s="28">
         <f t="shared" si="7"/>
-        <v>-143778.3712</v>
+        <v>-133999.0851</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" si="7"/>
-        <v>-0.5327652524</v>
+        <v>-0.4949448512</v>
       </c>
     </row>
   </sheetData>
@@ -4700,17 +4721,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D1" s="152"/>
       <c r="E1" s="153" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -4719,44 +4740,44 @@
         <v>EUR to USD</v>
       </c>
       <c r="B2" s="154">
-        <v>0.9749800000000001</v>
+        <v>0.9886699999999999</v>
       </c>
       <c r="C2" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D2" s="97"/>
       <c r="E2" s="156">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(""https://www.xe.com/en/currencyconverter/convert/?Amount=1000&amp;From=EUR&amp;To=USD""&amp;INDEX($D:$D,2),""//p[@class='result__BigRate-sc-1bsijpp-1 iGrAod']"")/1000"),0.9749800000000001)</f>
-        <v>0.97498</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(""https://www.xe.com/en/currencyconverter/convert/?Amount=1000&amp;From=EUR&amp;To=USD""&amp;INDEX($D:$D,2),""//p[@class='result__BigRate-sc-1bsijpp-1 iGrAod']"")/1000"),0.9886699999999999)</f>
+        <v>0.98867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="17">
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="C3" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D3" s="97" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="23">
         <f t="array" ref="E3">IF($D3&lt;&gt;"",VLOOKUP($D3,FriktionData!$D:$F,3,0),INDEX(ImportJSON("https://api.coingecko.com/api/v3/simple/price?ids=Solana&amp;vs_currencies=usd"&amp;INDEX($D:$D,2),,"noHeaders,noInherit"),0))*1</f>
-        <v>31.16</v>
+        <v>33.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="157">
         <v>1.0</v>
       </c>
       <c r="C4" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="E4" s="23">
         <f>MAX(1,MAXIFS(Dashboard!$D:$D,Dashboard!$A:$A,$A8)/55555)</f>
@@ -4765,51 +4786,51 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="131">
-        <v>1.23159729464035</v>
+        <v>1.2336689777266</v>
       </c>
       <c r="C5" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D5" s="97" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT($A5,""()""),2)"),"fcSOL")</f>
         <v>fcSOL</v>
       </c>
       <c r="E5" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D5,FriktionData!$C:$I,IF(INDEX(SPLIT($A5,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),1.23159729464035)</f>
-        <v>1.231597295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D5,FriktionData!$C:$I,IF(INDEX(SPLIT($A5,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),1.2336689777266)</f>
+        <v>1.233668978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="23">
-        <v>1.19691452491279</v>
+        <v>1.20094444439626</v>
       </c>
       <c r="C6" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D6" s="97" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT($A6,""()""),2)"),"fcSOLHigh")</f>
         <v>fcSOLHigh</v>
       </c>
       <c r="E6" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D6,FriktionData!$C:$I,IF(INDEX(SPLIT($A6,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),1.19691452491279)</f>
-        <v>1.196914525</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D6,FriktionData!$C:$I,IF(INDEX(SPLIT($A6,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),1.20094444439626)</f>
+        <v>1.200944444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="23">
         <v>1.00498289003119</v>
       </c>
       <c r="C7" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D7" s="97" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT($A7,""()""),2)"),"fprotSOL")</f>
@@ -4825,69 +4846,69 @@
         <v>19</v>
       </c>
       <c r="B8" s="23">
-        <v>1.13047205354076</v>
+        <v>1.14014367769969</v>
       </c>
       <c r="C8" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D8" s="97" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(SPLIT($A8,""()""),2)"),"fcrabBTC")</f>
         <v>fcrabBTC</v>
       </c>
       <c r="E8" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D8,FriktionData!$C:$I,IF(INDEX(SPLIT($A8,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),1.13059291557458)</f>
-        <v>1.130592916</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D8,FriktionData!$C:$I,IF(INDEX(SPLIT($A8,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),1.14062198491617)</f>
+        <v>1.140621985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B9" s="23">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="C9" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D9" s="97" t="str">
         <f>OFFSET($D:$D,4,0,4)</f>
         <v>fcSOL</v>
       </c>
       <c r="E9" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D9,FriktionData!$C:$I,IF(INDEX(SPLIT($A9,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),0.2)</f>
-        <v>0.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D9,FriktionData!$C:$I,IF(INDEX(SPLIT($A9,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),0.48)</f>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B10" s="23">
-        <v>0.39</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E10" s="23">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D10,FriktionData!$C:$I,IF(INDEX(SPLIT($A10,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),0.39)</f>
-        <v>0.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D10,FriktionData!$C:$I,IF(INDEX(SPLIT($A10,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),0.8)</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B11" s="23">
         <v>0.0</v>
       </c>
       <c r="C11" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E11" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D11,FriktionData!$C:$I,IF(INDEX(SPLIT($A11,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),0.0)</f>
@@ -4896,16 +4917,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" s="23">
         <v>0.33</v>
       </c>
       <c r="C12" s="155">
-        <v>44869.09163016204</v>
+        <v>44869.69579568287</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" s="23">
         <f>IFERROR(__xludf.DUMMYFUNCTION("VLOOKUP($D12,FriktionData!$C:$I,IF(INDEX(SPLIT($A12,"" ""),2)&lt;&gt;""Interest"",3,7),0)*1"),0.33)</f>
@@ -4941,199 +4962,199 @@
         <v>/allMainnetVolts/globalId</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F1" s="94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I1" s="94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="94" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F2" s="94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H2" s="94" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I2" s="94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="94" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="94" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F3" s="94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H3" s="94" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="94" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="94" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H4" s="94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="94" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F5" s="94" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="94" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F6" s="94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="94" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="94" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H7" s="94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I7" s="94">
         <v>0.0</v>
@@ -5141,579 +5162,579 @@
     </row>
     <row r="8">
       <c r="A8" s="94" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E8" s="94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F8" s="94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I8" s="94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="94" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F9" s="94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G9" s="94" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H9" s="94" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I9" s="94" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="94" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F10" s="94" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H10" s="94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="94" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F11" s="94" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H11" s="94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I11" s="94" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="94" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F12" s="94" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G12" s="94" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H12" s="94" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I12" s="94" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="94" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F13" s="94" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H13" s="94" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I13" s="94" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="94" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="94" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H15" s="94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I15" s="94" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="94" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E16" s="94" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G16" s="94" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H16" s="94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I16" s="94" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="94" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E17" s="94" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G17" s="94" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H17" s="94" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I17" s="94" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="94" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E18" s="94" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H18" s="94" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I18" s="94" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="94" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G19" s="94" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H19" s="94" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I19" s="94" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="94" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E20" s="94" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G20" s="94" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H20" s="94" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I20" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="94" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F21" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="94" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H21" s="94" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I21" s="94" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="94" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="94" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="F22" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>390</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>385</v>
-      </c>
       <c r="I22" s="94" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="94" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="94" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F23" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" s="94" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H23" s="94" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="I23" s="94" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="94" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C24" s="94" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="94" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F24" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" s="94" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H24" s="94" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I24" s="94" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="94" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C25" s="94" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E25" s="94" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F25" s="94" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="G25" s="94" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H25" s="94" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I25" s="94" t="s">
-        <v>253</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="94" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C26" s="94" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D26" s="94" t="s">
+        <v>422</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="E26" s="94" t="s">
-        <v>416</v>
-      </c>
-      <c r="F26" s="94" t="s">
-        <v>74</v>
-      </c>
       <c r="G26" s="94" t="s">
+        <v>424</v>
+      </c>
+      <c r="H26" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="94" t="s">
-        <v>411</v>
-      </c>
       <c r="I26" s="94" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="94" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="G27" s="94" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H27" s="94" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="I27" s="94">
         <v>0.0</v>
@@ -5721,144 +5742,144 @@
     </row>
     <row r="28">
       <c r="A28" s="94" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C28" s="94" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" s="94" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F28" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="94" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H28" s="94" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I28" s="94" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="94" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" s="94" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F29" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" s="94" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H29" s="94" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="I29" s="94" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="94" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C30" s="94" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H30" s="94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I30" s="94" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="94" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C31" s="94" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D31" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="94" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F31" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G31" s="94" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H31" s="94" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I31" s="94" t="s">
-        <v>446</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="94" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="94" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" s="94" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F32" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32" s="94" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H32" s="94" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I32" s="94">
         <v>0.0</v>
@@ -5866,13 +5887,13 @@
     </row>
     <row r="33">
       <c r="A33" s="94" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C33" s="94" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D33" s="94" t="s">
         <v>1</v>
@@ -5881,13 +5902,13 @@
         <v>0.0</v>
       </c>
       <c r="F33" s="94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G33" s="94" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H33" s="94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I33" s="94">
         <v>0.0</v>
@@ -5895,86 +5916,86 @@
     </row>
     <row r="34">
       <c r="A34" s="94" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C34" s="94" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D34" s="94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E34" s="94" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F34" s="94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="94" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E35" s="94">
         <v>0.0</v>
       </c>
       <c r="F35" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G35" s="94">
         <v>0.0</v>
       </c>
       <c r="H35" s="94" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="I35" s="94" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="94" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D36" s="94" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" s="94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G36" s="94" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H36" s="94" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I36" s="94">
         <v>0.0</v>
@@ -5982,118 +6003,118 @@
     </row>
     <row r="37">
       <c r="A37" s="94" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B37" s="95" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" s="94">
         <v>0.0</v>
       </c>
       <c r="F37" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G37" s="94">
         <v>0.0</v>
       </c>
       <c r="H37" s="94" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="I37" s="94" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="94" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D38" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E38" s="94">
         <v>0.0</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38" s="94">
         <v>0.0</v>
       </c>
       <c r="H38" s="94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I38" s="94" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="94" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B39" s="95" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" s="94" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F39" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G39" s="94" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H39" s="94" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I39" s="94" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="94" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" s="94" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F40" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G40" s="94" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H40" s="94" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>233</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -6114,12 +6135,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="151" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="149" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3">
@@ -6129,17 +6150,17 @@
     </row>
     <row r="4">
       <c r="A4" s="150" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="149" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="149" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7">
@@ -6149,107 +6170,107 @@
     </row>
     <row r="8">
       <c r="A8" s="158" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="151" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="151" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="151" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="151" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="151" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="151" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="151" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="149" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="151" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="151" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="151" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="149" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="149" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="151" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="149" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="149" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="149" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="149" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="149" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="149" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29">
@@ -6259,67 +6280,67 @@
     </row>
     <row r="30">
       <c r="A30" s="149" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="149" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="149" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="149" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="149" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="149" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="150" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="159" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="160" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="150" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="149" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="149" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="150" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43">
@@ -6354,37 +6375,37 @@
     </row>
     <row r="49">
       <c r="A49" s="149" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="149" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="149" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="149" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="149" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="149" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="149" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56">
@@ -6394,12 +6415,12 @@
     </row>
     <row r="57">
       <c r="A57" s="149" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="149" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59">
@@ -6409,12 +6430,12 @@
     </row>
     <row r="60">
       <c r="A60" s="149" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="149" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62">
@@ -6455,57 +6476,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="149" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="149" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="149" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="149" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="150" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="149" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="150" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="149" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="149" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="149" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="150" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12">
@@ -6515,7 +6536,7 @@
     </row>
     <row r="13">
       <c r="A13" s="149" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C13" s="8"/>
     </row>
@@ -6527,28 +6548,28 @@
     </row>
     <row r="15">
       <c r="A15" s="149" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="149" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="150" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="149" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="149" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -6559,10 +6580,10 @@
     </row>
     <row r="21">
       <c r="A21" s="149" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B21" s="149" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C21" s="149" t="s">
         <v>12</v>
@@ -6576,7 +6597,7 @@
     </row>
     <row r="23">
       <c r="A23" s="149" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -6590,10 +6611,10 @@
     </row>
     <row r="25">
       <c r="A25" s="163" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B25" s="149" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C25" s="149" t="s">
         <v>12</v>
@@ -6607,7 +6628,7 @@
     </row>
     <row r="27">
       <c r="A27" s="163" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B27" s="163"/>
       <c r="C27" s="8"/>
@@ -6615,44 +6636,44 @@
     </row>
     <row r="28">
       <c r="A28" s="163" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="163" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D28" s="163" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="E28" s="149" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F28" s="149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="149" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B29" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E29" s="149" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="150" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B30" s="150"/>
       <c r="C30" s="150"/>
@@ -6660,97 +6681,97 @@
     </row>
     <row r="31">
       <c r="A31" s="149" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="149" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="149" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B33" s="149" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F33" s="149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="149" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B34" s="149" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C34" s="149" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D34" s="149" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F34" s="149" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="150" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="F35" s="149" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="150" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F36" s="149" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="151" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B37" s="149"/>
       <c r="C37" s="149"/>
@@ -6760,239 +6781,239 @@
     </row>
     <row r="38">
       <c r="A38" s="163" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F38" s="149" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="149" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F39" s="149" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="150" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F40" s="149" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="150" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B41" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D41" s="149" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E41" s="149" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F41" s="149" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="149" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B42" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D42" s="149" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="E42" s="149" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F42" s="149" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="149" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B43" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D43" s="149" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E43" s="149" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F43" s="149" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="149" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B44" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C44" s="149" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D44" s="149" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E44" s="149" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F44" s="149" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="150" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B45" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C45" s="149" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D45" s="149" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E45" s="149" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F45" s="149" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="150" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B46" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C46" s="149" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="D46" s="149" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E46" s="149" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="F46" s="149" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="151" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B47" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C47" s="149" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D47" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E47" s="149" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="151" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B48" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C48" s="149" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="D48" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E48" s="149" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="151" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B49" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C49" s="149" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D49" s="149" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E49" s="149" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="F49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="149" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -7004,7 +7025,7 @@
     </row>
     <row r="52">
       <c r="A52" s="149" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B52" s="162"/>
       <c r="D52" s="8"/>
@@ -7020,7 +7041,7 @@
     </row>
     <row r="54">
       <c r="A54" s="149" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B54" s="162"/>
       <c r="D54" s="8"/>
@@ -7028,7 +7049,7 @@
     </row>
     <row r="55">
       <c r="A55" s="149" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B55" s="162"/>
       <c r="D55" s="8"/>
@@ -7036,7 +7057,7 @@
     </row>
     <row r="56">
       <c r="A56" s="149" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57">
@@ -7046,7 +7067,7 @@
     </row>
     <row r="58">
       <c r="A58" s="149" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59">
@@ -7056,7 +7077,7 @@
     </row>
     <row r="60">
       <c r="A60" s="149" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="61">
@@ -7066,22 +7087,22 @@
     </row>
     <row r="62">
       <c r="A62" s="149" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="149" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="149" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="150" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -7108,192 +7129,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="151" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="151" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="151" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="151" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="151" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="151" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="151" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="149" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="149" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="149" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="149" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="150" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="149" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="150" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="149" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="149" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="149" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="149" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="151" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="150" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="149" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="149" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="149" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="149" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="150" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="149" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="151" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="149" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="149" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="149" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="149" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="B31" s="149" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F31" s="149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="149" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B32" s="162">
         <v>0.35</v>
       </c>
       <c r="C32" s="149" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D32" s="149" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E32" s="149" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F32" s="8">
         <v>1.0151</v>
@@ -7301,22 +7322,22 @@
     </row>
     <row r="33">
       <c r="A33" s="149" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B33" s="162">
         <v>0.75</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D33" s="8">
         <v>0.0178</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="F33" s="149" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34">
@@ -7327,53 +7348,53 @@
         <v>0.75</v>
       </c>
       <c r="C34" s="149" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="D34" s="8">
         <v>0.0362</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F34" s="149" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="149" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F35" s="149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="149" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="B36" s="162">
         <v>0.35</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F36" s="8">
         <v>1.0336</v>
@@ -7381,79 +7402,79 @@
     </row>
     <row r="37">
       <c r="A37" s="149" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B37" s="162">
         <v>0.75</v>
       </c>
       <c r="C37" s="149" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D37" s="8">
         <v>0.0359</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F37" s="149" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="149" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B38" s="162">
         <v>0.75</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D38" s="8">
         <v>0.037</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F38" s="149" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="149" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B39" s="162">
         <v>0.75</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D39" s="8">
         <v>0.0553</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="F39" s="149" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="149" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B40" s="162">
         <v>0.75</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D40" s="8">
         <v>0.0047</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F40" s="8">
         <v>0.0218</v>
@@ -7461,19 +7482,19 @@
     </row>
     <row r="41">
       <c r="A41" s="149" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B41" s="162">
         <v>0.75</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D41" s="8">
         <v>4.0E-4</v>
       </c>
       <c r="E41" s="149" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F41" s="8">
         <v>0.0059</v>
@@ -7481,19 +7502,19 @@
     </row>
     <row r="42">
       <c r="A42" s="149" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B42" s="162">
         <v>0.75</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D42" s="149" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="E42" s="149" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="F42" s="8">
         <v>9.0E-4</v>
@@ -7501,19 +7522,19 @@
     </row>
     <row r="43">
       <c r="A43" s="149" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="B43" s="162">
         <v>0.75</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D43" s="149" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="E43" s="149" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F43" s="8">
         <v>0.0047</v>
@@ -7521,19 +7542,19 @@
     </row>
     <row r="44">
       <c r="A44" s="149" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B44" s="162">
         <v>0.65</v>
       </c>
       <c r="C44" s="149" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D44" s="8">
         <v>0.0</v>
       </c>
       <c r="E44" s="149" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F44" s="8">
         <v>0.0</v>
@@ -7541,19 +7562,19 @@
     </row>
     <row r="45">
       <c r="A45" s="149" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B45" s="162">
         <v>0.65</v>
       </c>
       <c r="C45" s="149" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D45" s="8">
         <v>0.0</v>
       </c>
       <c r="E45" s="149" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F45" s="8">
         <v>0.0</v>
@@ -7561,19 +7582,19 @@
     </row>
     <row r="46">
       <c r="A46" s="149" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B46" s="162">
         <v>0.65</v>
       </c>
       <c r="C46" s="149" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D46" s="8">
         <v>0.0626</v>
       </c>
       <c r="E46" s="149" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F46" s="8">
         <v>0.1532</v>
@@ -7581,19 +7602,19 @@
     </row>
     <row r="47">
       <c r="A47" s="149" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B47" s="162">
         <v>0.65</v>
       </c>
       <c r="C47" s="149" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D47" s="8">
         <v>0.0244</v>
       </c>
       <c r="E47" s="149" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="F47" s="8">
         <v>0.0605</v>
@@ -7601,19 +7622,19 @@
     </row>
     <row r="48">
       <c r="A48" s="149" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B48" s="162">
         <v>0.65</v>
       </c>
       <c r="C48" s="149" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D48" s="8">
         <v>5.0E-4</v>
       </c>
       <c r="E48" s="149" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="F48" s="8">
         <v>0.0084</v>
@@ -7621,19 +7642,19 @@
     </row>
     <row r="49">
       <c r="A49" s="149" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B49" s="162">
         <v>0.35</v>
       </c>
       <c r="C49" s="149" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="D49" s="8">
         <v>0.0135</v>
       </c>
       <c r="E49" s="149" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="F49" s="8">
         <v>0.0712</v>
@@ -7641,19 +7662,19 @@
     </row>
     <row r="50">
       <c r="A50" s="149" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B50" s="162">
         <v>0.75</v>
       </c>
       <c r="C50" s="149" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="D50" s="8">
         <v>0.0</v>
       </c>
       <c r="E50" s="149" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="F50" s="8">
         <v>4.0E-4</v>
@@ -7661,19 +7682,19 @@
     </row>
     <row r="51">
       <c r="A51" s="149" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B51" s="162">
         <v>0.0</v>
       </c>
       <c r="C51" s="149" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="D51" s="8">
         <v>0.0025</v>
       </c>
       <c r="E51" s="149" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="F51" s="8">
         <v>0.0159</v>
@@ -7681,19 +7702,19 @@
     </row>
     <row r="52">
       <c r="A52" s="149" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B52" s="162">
         <v>0.0</v>
       </c>
       <c r="C52" s="149" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="D52" s="8">
         <v>7.0E-4</v>
       </c>
       <c r="E52" s="149" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="F52" s="8">
         <v>0.0104</v>
@@ -7701,19 +7722,19 @@
     </row>
     <row r="53">
       <c r="A53" s="149" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B53" s="162">
         <v>0.0</v>
       </c>
       <c r="C53" s="149" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D53" s="8">
         <v>1.0E-4</v>
       </c>
       <c r="E53" s="149" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F53" s="8">
         <v>0.004</v>
@@ -7721,19 +7742,19 @@
     </row>
     <row r="54">
       <c r="A54" s="149" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="B54" s="162">
         <v>0.0</v>
       </c>
       <c r="C54" s="149" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="D54" s="8">
         <v>3.0E-4</v>
       </c>
       <c r="E54" s="149" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="F54" s="8">
         <v>0.0104</v>
@@ -7741,19 +7762,19 @@
     </row>
     <row r="55">
       <c r="A55" s="149" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B55" s="162">
         <v>0.0</v>
       </c>
       <c r="C55" s="149" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D55" s="8">
         <v>0.0</v>
       </c>
       <c r="E55" s="149" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="F55" s="8">
         <v>0.0</v>
@@ -7761,37 +7782,37 @@
     </row>
     <row r="56">
       <c r="A56" s="149" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="149" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="149" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="149" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="149" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="149" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="150" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="63">
@@ -7801,7 +7822,7 @@
     </row>
     <row r="64">
       <c r="A64" s="150" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65">
@@ -7809,31 +7830,31 @@
         <v>1797.48</v>
       </c>
       <c r="B65" s="149" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="149" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B66" s="149" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="97" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="149" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B68" s="149" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69">
@@ -7842,144 +7863,144 @@
     </row>
     <row r="70">
       <c r="A70" s="149" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B70" s="149" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="149" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B71" s="149" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="149" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B72" s="149" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="151" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B73" s="149" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="151" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="151" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="151" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="151" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="151" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="151" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="151" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="151" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="151" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="151" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="151" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="151" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="151" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="151" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="151" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="151" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="149" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="151" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="151" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="151" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="151" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="151" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="96">
@@ -8062,7 +8083,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H1" s="97" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="I1" s="8"/>
     </row>
@@ -8094,7 +8115,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="H2" s="94" t="str">
         <f>$A$1*$B1</f>
@@ -8131,7 +8152,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="H3" s="94" t="str">
         <f>$A$1*$B3</f>
@@ -8185,7 +8206,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -8207,7 +8228,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="H6" s="6" t="str">
         <f>MAXIFS($A:$A,$F:$F,"&lt;"&amp;$B$5)*$B1+MAXIFS($D:$D,$F:$F,"&lt;"&amp;$B$5)*$C1</f>
@@ -8236,7 +8257,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="H7" s="6" t="str">
         <f>MAXIFS($A:$A,$F:$F,"&lt;"&amp;$B$5)*$B3+MAXIFS($D:$D,$F:$F,"&lt;"&amp;$B$5)*$C3</f>
@@ -8565,52 +8586,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="166" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="D1" s="166" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E1" s="166" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F1" s="166" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G1" s="167" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H1" s="168" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I1" s="168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="168" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K1" s="168" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="97" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="B2" s="130">
         <f>HLOOKUP("*("&amp;B$1&amp;")*",Price!$A:$CD,2,0)</f>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="C2" s="130">
         <f>$B$2*94.85/91.15</f>
-        <v>32.43526604</v>
+        <v>34.9430938</v>
       </c>
       <c r="D2" s="130">
         <f>$B$2*95.69/91.15</f>
-        <v>32.72251563</v>
+        <v>35.25255293</v>
       </c>
       <c r="E2" s="130">
         <f>$B$2*94.58/91.15</f>
-        <v>32.34293582</v>
+        <v>34.84362479</v>
       </c>
       <c r="F2" s="97" t="str">
         <f>HLOOKUP("*("&amp;F$1&amp;")*",Price!$A:$CD,2,0)</f>
@@ -8618,15 +8639,15 @@
       </c>
       <c r="G2" s="169">
         <f t="shared" ref="G2:I2" si="1">$B$2</f>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="H2" s="130">
         <f t="shared" si="1"/>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="I2" s="130">
         <f t="shared" si="1"/>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="J2" s="97" t="str">
         <f>$F$2</f>
@@ -8634,12 +8655,12 @@
       </c>
       <c r="K2" s="130">
         <f>$B$2</f>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="97" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="B3" s="97">
         <v>117.36</v>
@@ -8674,23 +8695,23 @@
     </row>
     <row r="4">
       <c r="A4" s="171" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B4" s="172">
         <f t="shared" ref="B4:K4" si="2">IF(B2&lt;B3,(B3-B2)/B2,(B2-B3)/B3)</f>
-        <v>2.765158807</v>
+        <v>2.494937463</v>
       </c>
       <c r="C4" s="172">
         <f t="shared" si="2"/>
-        <v>2.740064898</v>
+        <v>2.471644517</v>
       </c>
       <c r="D4" s="172">
         <f t="shared" si="2"/>
-        <v>2.676673314</v>
+        <v>2.412802478</v>
       </c>
       <c r="E4" s="172">
         <f t="shared" si="2"/>
-        <v>2.719823107</v>
+        <v>2.452855457</v>
       </c>
       <c r="F4" s="172" t="str">
         <f t="shared" si="2"/>
@@ -8698,15 +8719,15 @@
       </c>
       <c r="G4" s="173">
         <f t="shared" si="2"/>
-        <v>1.714148219</v>
+        <v>1.51935676</v>
       </c>
       <c r="H4" s="172">
         <f t="shared" si="2"/>
-        <v>0.1544444444</v>
+        <v>0.2437037037</v>
       </c>
       <c r="I4" s="172">
         <f t="shared" si="2"/>
-        <v>1.615976901</v>
+        <v>1.42823109</v>
       </c>
       <c r="J4" s="172" t="str">
         <f t="shared" si="2"/>
@@ -8714,12 +8735,12 @@
       </c>
       <c r="K4" s="172">
         <f t="shared" si="2"/>
-        <v>1.56657042</v>
+        <v>1.382370459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="97" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B5" s="64">
         <v>0.2731</v>
@@ -8754,7 +8775,7 @@
     </row>
     <row r="6">
       <c r="A6" s="97" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B6" s="64">
         <v>0.0</v>
@@ -8789,23 +8810,23 @@
     </row>
     <row r="7">
       <c r="A7" s="171" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B7" s="172">
         <f t="shared" ref="B7:K7" si="3">(B5+B6)*B4</f>
-        <v>0.7551648701</v>
+        <v>0.6813674211</v>
       </c>
       <c r="C7" s="172">
         <f t="shared" si="3"/>
-        <v>0.7568059249</v>
+        <v>0.6826682156</v>
       </c>
       <c r="D7" s="172">
         <f t="shared" si="3"/>
-        <v>0.5786967705</v>
+        <v>0.5216478957</v>
       </c>
       <c r="E7" s="172">
         <f t="shared" si="3"/>
-        <v>0.7501272128</v>
+        <v>0.6764975349</v>
       </c>
       <c r="F7" s="172" t="str">
         <f t="shared" si="3"/>
@@ -8813,15 +8834,15 @@
       </c>
       <c r="G7" s="173">
         <f t="shared" si="3"/>
-        <v>0.421680462</v>
+        <v>0.373761763</v>
       </c>
       <c r="H7" s="172">
         <f t="shared" si="3"/>
-        <v>0.03819411111</v>
+        <v>0.06026792593</v>
       </c>
       <c r="I7" s="172">
         <f t="shared" si="3"/>
-        <v>-0.01244302214</v>
+        <v>-0.01099737939</v>
       </c>
       <c r="J7" s="172" t="str">
         <f t="shared" si="3"/>
@@ -8849,22 +8870,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="149" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="149" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="149" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="149" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -8879,12 +8900,12 @@
     </row>
     <row r="7">
       <c r="A7" s="149" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -8909,12 +8930,12 @@
     </row>
     <row r="13">
       <c r="A13" s="149" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="149" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15">
@@ -8939,12 +8960,12 @@
     </row>
     <row r="19">
       <c r="A19" s="149" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="149" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21">
@@ -8969,12 +8990,12 @@
     </row>
     <row r="25">
       <c r="A25" s="149" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -8999,12 +9020,12 @@
     </row>
     <row r="31">
       <c r="A31" s="149" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -9029,12 +9050,12 @@
     </row>
     <row r="37">
       <c r="A37" s="149" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="149" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
@@ -9059,12 +9080,12 @@
     </row>
     <row r="43">
       <c r="A43" s="149" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
@@ -9089,12 +9110,12 @@
     </row>
     <row r="49">
       <c r="A49" s="149" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="149" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51">
@@ -9119,12 +9140,12 @@
     </row>
     <row r="55">
       <c r="A55" s="149" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="149" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57">
@@ -9160,13 +9181,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="3"/>
@@ -9190,7 +9211,7 @@
         <v/>
       </c>
       <c r="D2" s="170" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="E2" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D2&lt;&gt;"""",SPLIT(D2,"" 
@@ -9216,7 +9237,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D3" s="170" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="E3" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D3&lt;&gt;"""",SPLIT(D3,"" 
@@ -9250,7 +9271,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D4" s="170" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="E4" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D4&lt;&gt;"""",SPLIT(D4,"" 
@@ -9292,7 +9313,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D5" s="170" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="E5" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D5&lt;&gt;"""",SPLIT(D5,"" 
@@ -9334,7 +9355,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D6" s="170" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="E6" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D6&lt;&gt;"""",SPLIT(D6,"" 
@@ -9368,7 +9389,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D7" s="170" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E7" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D7&lt;&gt;"""",SPLIT(D7,"" 
@@ -9402,7 +9423,7 @@
         <v/>
       </c>
       <c r="D8" s="170" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E8" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D8&lt;&gt;"""",SPLIT(D8,"" 
@@ -9428,7 +9449,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D9" s="170" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E9" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D9&lt;&gt;"""",SPLIT(D9,"" 
@@ -9462,7 +9483,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D10" s="170" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="E10" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D10&lt;&gt;"""",SPLIT(D10,"" 
@@ -9496,7 +9517,7 @@
         <v/>
       </c>
       <c r="D11" s="170" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E11" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D11&lt;&gt;"""",SPLIT(D11,"" 
@@ -9524,7 +9545,7 @@
         <v/>
       </c>
       <c r="D12" s="170" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="E12" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D12&lt;&gt;"""",SPLIT(D12,"" 
@@ -9552,7 +9573,7 @@
         <v/>
       </c>
       <c r="D13" s="170" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E13" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D13&lt;&gt;"""",SPLIT(D13,"" 
@@ -9578,7 +9599,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D14" s="170" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E14" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D14&lt;&gt;"""",SPLIT(D14,"" 
@@ -9612,7 +9633,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D15" s="170" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="E15" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D15&lt;&gt;"""",SPLIT(D15,"" 
@@ -9654,7 +9675,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D16" s="170" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="E16" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D16&lt;&gt;"""",SPLIT(D16,"" 
@@ -9688,7 +9709,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="E17" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D17&lt;&gt;"""",SPLIT(D17,"" 
@@ -9730,7 +9751,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E18" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D18&lt;&gt;"""",SPLIT(D18,"" 
@@ -9764,7 +9785,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="E19" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D19&lt;&gt;"""",SPLIT(D19,"" 
@@ -9798,7 +9819,7 @@
         <v/>
       </c>
       <c r="D20" s="170" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="E20" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D20&lt;&gt;"""",SPLIT(D20,"" 
@@ -9826,7 +9847,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D21" s="170" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E21" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D21&lt;&gt;"""",SPLIT(D21,"" 
@@ -9860,7 +9881,7 @@
         <v/>
       </c>
       <c r="D22" s="170" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="E22" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D22&lt;&gt;"""",SPLIT(D22,"" 
@@ -9888,7 +9909,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D23" s="170" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="E23" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D23&lt;&gt;"""",SPLIT(D23,"" 
@@ -9922,7 +9943,7 @@
         <v/>
       </c>
       <c r="D24" s="170" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="E24" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D24&lt;&gt;"""",SPLIT(D24,"" 
@@ -9948,7 +9969,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D25" s="170" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="E25" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D25&lt;&gt;"""",SPLIT(D25,"" 
@@ -9982,7 +10003,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D26" s="170" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="E26" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D26&lt;&gt;"""",SPLIT(D26,"" 
@@ -10016,7 +10037,7 @@
         <v/>
       </c>
       <c r="D27" s="170" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="E27" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D27&lt;&gt;"""",SPLIT(D27,"" 
@@ -10044,7 +10065,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="E28" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D28&lt;&gt;"""",SPLIT(D28,"" 
@@ -10078,7 +10099,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="E29" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D29&lt;&gt;"""",SPLIT(D29,"" 
@@ -10112,7 +10133,7 @@
         <v/>
       </c>
       <c r="D30" s="170" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="E30" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D30&lt;&gt;"""",SPLIT(D30,"" 
@@ -10140,7 +10161,7 @@
         <v/>
       </c>
       <c r="D31" s="170" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="E31" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D31&lt;&gt;"""",SPLIT(D31,"" 
@@ -10166,7 +10187,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D32" s="170" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="E32" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D32&lt;&gt;"""",SPLIT(D32,"" 
@@ -10200,7 +10221,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D33" s="170" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="E33" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D33&lt;&gt;"""",SPLIT(D33,"" 
@@ -10242,7 +10263,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D34" s="170" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E34" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D34&lt;&gt;"""",SPLIT(D34,"" 
@@ -10276,7 +10297,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D35" s="170" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="E35" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D35&lt;&gt;"""",SPLIT(D35,"" 
@@ -10310,7 +10331,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D36" s="170" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="E36" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D36&lt;&gt;"""",SPLIT(D36,"" 
@@ -10344,7 +10365,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D37" s="170" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="E37" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D37&lt;&gt;"""",SPLIT(D37,"" 
@@ -10378,7 +10399,7 @@
         <v/>
       </c>
       <c r="D38" s="170" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E38" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D38&lt;&gt;"""",SPLIT(D38,"" 
@@ -10406,7 +10427,7 @@
         <v/>
       </c>
       <c r="D39" s="170" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="E39" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D39&lt;&gt;"""",SPLIT(D39,"" 
@@ -10432,7 +10453,7 @@
         <v/>
       </c>
       <c r="D40" s="170" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="E40" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D40&lt;&gt;"""",SPLIT(D40,"" 
@@ -10458,7 +10479,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D41" s="170" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="E41" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D41&lt;&gt;"""",SPLIT(D41,"" 
@@ -10492,7 +10513,7 @@
         <v>-0.00179176</v>
       </c>
       <c r="D42" s="170" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="E42" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D42&lt;&gt;"""",SPLIT(D42,"" 
@@ -10526,7 +10547,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D43" s="170" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E43" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D43&lt;&gt;"""",SPLIT(D43,"" 
@@ -10552,7 +10573,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D44" s="170" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="E44" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D44&lt;&gt;"""",SPLIT(D44,"" 
@@ -10594,7 +10615,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D45" s="170" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="E45" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D45&lt;&gt;"""",SPLIT(D45,"" 
@@ -10628,7 +10649,7 @@
         <v>-0.00179176</v>
       </c>
       <c r="D46" s="170" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="E46" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D46&lt;&gt;"""",SPLIT(D46,"" 
@@ -10662,7 +10683,7 @@
         <v>-0.00151336</v>
       </c>
       <c r="D47" s="170" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E47" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D47&lt;&gt;"""",SPLIT(D47,"" 
@@ -10688,7 +10709,7 @@
         <v>-0.02336276</v>
       </c>
       <c r="D48" s="170" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="E48" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D48&lt;&gt;"""",SPLIT(D48,"" 
@@ -10730,7 +10751,7 @@
         <v>0.032150499</v>
       </c>
       <c r="D49" s="170" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="E49" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D49&lt;&gt;"""",SPLIT(D49,"" 
@@ -10764,7 +10785,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D50" s="170" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="E50" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D50&lt;&gt;"""",SPLIT(D50,"" 
@@ -10798,7 +10819,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D51" s="170" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="E51" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D51&lt;&gt;"""",SPLIT(D51,"" 
@@ -10832,7 +10853,7 @@
         <v/>
       </c>
       <c r="D52" s="170" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E52" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D52&lt;&gt;"""",SPLIT(D52,"" 
@@ -10860,7 +10881,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D53" s="170" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E53" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D53&lt;&gt;"""",SPLIT(D53,"" 
@@ -10894,7 +10915,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D54" s="170" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E54" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D54&lt;&gt;"""",SPLIT(D54,"" 
@@ -10928,7 +10949,7 @@
         <v/>
       </c>
       <c r="D55" s="170" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E55" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D55&lt;&gt;"""",SPLIT(D55,"" 
@@ -10956,7 +10977,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D56" s="170" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E56" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D56&lt;&gt;"""",SPLIT(D56,"" 
@@ -10990,7 +11011,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D57" s="170" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E57" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D57&lt;&gt;"""",SPLIT(D57,"" 
@@ -11024,7 +11045,7 @@
         <v/>
       </c>
       <c r="D58" s="170" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E58" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D58&lt;&gt;"""",SPLIT(D58,"" 
@@ -11052,7 +11073,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D59" s="170" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="E59" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D59&lt;&gt;"""",SPLIT(D59,"" 
@@ -11086,7 +11107,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D60" s="170" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E60" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D60&lt;&gt;"""",SPLIT(D60,"" 
@@ -11120,7 +11141,7 @@
         <v/>
       </c>
       <c r="D61" s="170" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E61" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D61&lt;&gt;"""",SPLIT(D61,"" 
@@ -11148,7 +11169,7 @@
         <v/>
       </c>
       <c r="D62" s="170" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="E62" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D62&lt;&gt;"""",SPLIT(D62,"" 
@@ -11174,7 +11195,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D63" s="170" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E63" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D63&lt;&gt;"""",SPLIT(D63,"" 
@@ -11216,7 +11237,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D64" s="170" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="E64" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D64&lt;&gt;"""",SPLIT(D64,"" 
@@ -11250,7 +11271,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D65" s="170" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="E65" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D65&lt;&gt;"""",SPLIT(D65,"" 
@@ -11284,7 +11305,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D66" s="170" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="E66" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D66&lt;&gt;"""",SPLIT(D66,"" 
@@ -11318,7 +11339,7 @@
         <v/>
       </c>
       <c r="D67" s="170" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="E67" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D67&lt;&gt;"""",SPLIT(D67,"" 
@@ -11346,7 +11367,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D68" s="170" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E68" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D68&lt;&gt;"""",SPLIT(D68,"" 
@@ -11380,7 +11401,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D69" s="170" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="E69" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D69&lt;&gt;"""",SPLIT(D69,"" 
@@ -11414,7 +11435,7 @@
         <v/>
       </c>
       <c r="D70" s="170" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="E70" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D70&lt;&gt;"""",SPLIT(D70,"" 
@@ -11442,7 +11463,7 @@
         <v/>
       </c>
       <c r="D71" s="170" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="E71" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D71&lt;&gt;"""",SPLIT(D71,"" 
@@ -11468,7 +11489,7 @@
         <v/>
       </c>
       <c r="D72" s="170" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E72" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D72&lt;&gt;"""",SPLIT(D72,"" 
@@ -11494,7 +11515,7 @@
         <v/>
       </c>
       <c r="D73" s="170" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E73" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D73&lt;&gt;"""",SPLIT(D73,"" 
@@ -11520,7 +11541,7 @@
         <v/>
       </c>
       <c r="D74" s="170" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="E74" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D74&lt;&gt;"""",SPLIT(D74,"" 
@@ -11548,7 +11569,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D75" s="170" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="E75" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D75&lt;&gt;"""",SPLIT(D75,"" 
@@ -11582,7 +11603,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D76" s="170" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="E76" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D76&lt;&gt;"""",SPLIT(D76,"" 
@@ -11624,7 +11645,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D77" s="170" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E77" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D77&lt;&gt;"""",SPLIT(D77,"" 
@@ -11658,7 +11679,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D78" s="170" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="E78" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D78&lt;&gt;"""",SPLIT(D78,"" 
@@ -11692,7 +11713,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D79" s="170" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="E79" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D79&lt;&gt;"""",SPLIT(D79,"" 
@@ -11726,7 +11747,7 @@
         <v/>
       </c>
       <c r="D80" s="170" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="E80" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D80&lt;&gt;"""",SPLIT(D80,"" 
@@ -11754,7 +11775,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D81" s="170" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="E81" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D81&lt;&gt;"""",SPLIT(D81,"" 
@@ -11788,7 +11809,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D82" s="170" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="E82" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D82&lt;&gt;"""",SPLIT(D82,"" 
@@ -11822,7 +11843,7 @@
         <v/>
       </c>
       <c r="D83" s="170" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="E83" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D83&lt;&gt;"""",SPLIT(D83,"" 
@@ -11850,7 +11871,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D84" s="170" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E84" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D84&lt;&gt;"""",SPLIT(D84,"" 
@@ -11876,7 +11897,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D85" s="170" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="E85" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D85&lt;&gt;"""",SPLIT(D85,"" 
@@ -11910,7 +11931,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D86" s="170" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E86" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D86&lt;&gt;"""",SPLIT(D86,"" 
@@ -11952,7 +11973,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D87" s="170" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="E87" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D87&lt;&gt;"""",SPLIT(D87,"" 
@@ -11986,7 +12007,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D88" s="170" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="E88" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D88&lt;&gt;"""",SPLIT(D88,"" 
@@ -12020,7 +12041,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D89" s="170" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="E89" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D89&lt;&gt;"""",SPLIT(D89,"" 
@@ -12054,7 +12075,7 @@
         <v/>
       </c>
       <c r="D90" s="170" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="E90" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D90&lt;&gt;"""",SPLIT(D90,"" 
@@ -12082,7 +12103,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D91" s="170" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E91" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D91&lt;&gt;"""",SPLIT(D91,"" 
@@ -12116,7 +12137,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D92" s="170" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="E92" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D92&lt;&gt;"""",SPLIT(D92,"" 
@@ -12150,7 +12171,7 @@
         <v/>
       </c>
       <c r="D93" s="170" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="E93" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D93&lt;&gt;"""",SPLIT(D93,"" 
@@ -12178,7 +12199,7 @@
         <v/>
       </c>
       <c r="D94" s="170" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="E94" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D94&lt;&gt;"""",SPLIT(D94,"" 
@@ -12204,7 +12225,7 @@
         <v/>
       </c>
       <c r="D95" s="170" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="E95" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D95&lt;&gt;"""",SPLIT(D95,"" 
@@ -12230,7 +12251,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D96" s="170" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="E96" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D96&lt;&gt;"""",SPLIT(D96,"" 
@@ -12264,7 +12285,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D97" s="170" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="E97" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D97&lt;&gt;"""",SPLIT(D97,"" 
@@ -12298,7 +12319,7 @@
         <v/>
       </c>
       <c r="D98" s="170" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="E98" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D98&lt;&gt;"""",SPLIT(D98,"" 
@@ -12326,7 +12347,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D99" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E99" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D99&lt;&gt;"""",SPLIT(D99,"" 
@@ -12352,7 +12373,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D100" s="170" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="E100" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D100&lt;&gt;"""",SPLIT(D100,"" 
@@ -12386,7 +12407,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D101" s="170" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="E101" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D101&lt;&gt;"""",SPLIT(D101,"" 
@@ -12420,7 +12441,7 @@
         <v/>
       </c>
       <c r="D102" s="170" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="E102" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D102&lt;&gt;"""",SPLIT(D102,"" 
@@ -12448,7 +12469,7 @@
         <v/>
       </c>
       <c r="D103" s="170" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="E103" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D103&lt;&gt;"""",SPLIT(D103,"" 
@@ -12474,7 +12495,7 @@
         <v/>
       </c>
       <c r="D104" s="170" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="E104" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D104&lt;&gt;"""",SPLIT(D104,"" 
@@ -12500,7 +12521,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D105" s="170" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="E105" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D105&lt;&gt;"""",SPLIT(D105,"" 
@@ -12534,7 +12555,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D106" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E106" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D106&lt;&gt;"""",SPLIT(D106,"" 
@@ -12560,7 +12581,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D107" s="170" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="E107" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D107&lt;&gt;"""",SPLIT(D107,"" 
@@ -12594,7 +12615,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D108" s="170" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="E108" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D108&lt;&gt;"""",SPLIT(D108,"" 
@@ -12628,7 +12649,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D109" s="170" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="E109" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D109&lt;&gt;"""",SPLIT(D109,"" 
@@ -12670,7 +12691,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D110" s="170" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="E110" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D110&lt;&gt;"""",SPLIT(D110,"" 
@@ -12712,7 +12733,7 @@
         <v/>
       </c>
       <c r="D111" s="170" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="E111" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D111&lt;&gt;"""",SPLIT(D111,"" 
@@ -12740,7 +12761,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D112" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E112" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D112&lt;&gt;"""",SPLIT(D112,"" 
@@ -12766,7 +12787,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D113" s="170" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E113" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D113&lt;&gt;"""",SPLIT(D113,"" 
@@ -12792,7 +12813,7 @@
         <v>-0.000007439</v>
       </c>
       <c r="D114" s="170" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="E114" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D114&lt;&gt;"""",SPLIT(D114,"" 
@@ -12826,7 +12847,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D115" s="170" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="E115" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D115&lt;&gt;"""",SPLIT(D115,"" 
@@ -12860,7 +12881,7 @@
         <v/>
       </c>
       <c r="D116" s="170" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="E116" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D116&lt;&gt;"""",SPLIT(D116,"" 
@@ -12888,7 +12909,7 @@
         <v/>
       </c>
       <c r="D117" s="170" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="E117" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D117&lt;&gt;"""",SPLIT(D117,"" 
@@ -12914,7 +12935,7 @@
         <v/>
       </c>
       <c r="D118" s="170" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="E118" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D118&lt;&gt;"""",SPLIT(D118,"" 
@@ -12940,7 +12961,7 @@
         <v/>
       </c>
       <c r="D119" s="170" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="E119" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D119&lt;&gt;"""",SPLIT(D119,"" 
@@ -12966,7 +12987,7 @@
         <v/>
       </c>
       <c r="D120" s="170" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="E120" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D120&lt;&gt;"""",SPLIT(D120,"" 
@@ -12992,7 +13013,7 @@
         <v/>
       </c>
       <c r="D121" s="170" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="E121" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D121&lt;&gt;"""",SPLIT(D121,"" 
@@ -13018,7 +13039,7 @@
         <v/>
       </c>
       <c r="D122" s="170" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="E122" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D122&lt;&gt;"""",SPLIT(D122,"" 
@@ -13044,7 +13065,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D123" s="170" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="E123" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D123&lt;&gt;"""",SPLIT(D123,"" 
@@ -13078,7 +13099,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D124" s="170" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="E124" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D124&lt;&gt;"""",SPLIT(D124,"" 
@@ -13112,7 +13133,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D125" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E125" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D125&lt;&gt;"""",SPLIT(D125,"" 
@@ -13138,7 +13159,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D126" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E126" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D126&lt;&gt;"""",SPLIT(D126,"" 
@@ -13164,7 +13185,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D127" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E127" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D127&lt;&gt;"""",SPLIT(D127,"" 
@@ -13190,7 +13211,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D128" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E128" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D128&lt;&gt;"""",SPLIT(D128,"" 
@@ -13216,7 +13237,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D129" s="170" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="E129" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D129&lt;&gt;"""",SPLIT(D129,"" 
@@ -13250,7 +13271,7 @@
         <v>0.002031841</v>
       </c>
       <c r="D130" s="170" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="E130" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D130&lt;&gt;"""",SPLIT(D130,"" 
@@ -13276,7 +13297,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D131" s="170" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="E131" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D131&lt;&gt;"""",SPLIT(D131,"" 
@@ -13310,7 +13331,7 @@
         <v/>
       </c>
       <c r="D132" s="170" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="E132" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D132&lt;&gt;"""",SPLIT(D132,"" 
@@ -13338,7 +13359,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D133" s="170" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="E133" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D133&lt;&gt;"""",SPLIT(D133,"" 
@@ -13372,7 +13393,7 @@
         <v>-0.00151336</v>
       </c>
       <c r="D134" s="170" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="E134" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D134&lt;&gt;"""",SPLIT(D134,"" 
@@ -13406,7 +13427,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D135" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E135" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D135&lt;&gt;"""",SPLIT(D135,"" 
@@ -13432,7 +13453,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D136" s="170" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="E136" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D136&lt;&gt;"""",SPLIT(D136,"" 
@@ -13474,7 +13495,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D137" s="170" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E137" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D137&lt;&gt;"""",SPLIT(D137,"" 
@@ -13500,7 +13521,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D138" s="170" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="E138" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D138&lt;&gt;"""",SPLIT(D138,"" 
@@ -13534,7 +13555,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D139" s="170" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="E139" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D139&lt;&gt;"""",SPLIT(D139,"" 
@@ -13568,7 +13589,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D140" s="170" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="E140" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D140&lt;&gt;"""",SPLIT(D140,"" 
@@ -13610,7 +13631,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D141" s="170" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="E141" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D141&lt;&gt;"""",SPLIT(D141,"" 
@@ -13644,7 +13665,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D142" s="170" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="E142" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D142&lt;&gt;"""",SPLIT(D142,"" 
@@ -13678,7 +13699,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D143" s="170" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="E143" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D143&lt;&gt;"""",SPLIT(D143,"" 
@@ -13720,7 +13741,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D144" s="170" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="E144" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D144&lt;&gt;"""",SPLIT(D144,"" 
@@ -13762,7 +13783,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D145" s="170" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E145" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D145&lt;&gt;"""",SPLIT(D145,"" 
@@ -13788,7 +13809,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D146" s="170" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="E146" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D146&lt;&gt;"""",SPLIT(D146,"" 
@@ -13830,7 +13851,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D147" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E147" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D147&lt;&gt;"""",SPLIT(D147,"" 
@@ -13856,7 +13877,7 @@
         <v>0.00203428</v>
       </c>
       <c r="D148" s="170" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E148" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D148&lt;&gt;"""",SPLIT(D148,"" 
@@ -13882,7 +13903,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D149" s="170" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E149" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D149&lt;&gt;"""",SPLIT(D149,"" 
@@ -13908,7 +13929,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D150" s="170" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="E150" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D150&lt;&gt;"""",SPLIT(D150,"" 
@@ -13942,7 +13963,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D151" s="170" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="E151" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D151&lt;&gt;"""",SPLIT(D151,"" 
@@ -13976,7 +13997,7 @@
         <v>0.002045133</v>
       </c>
       <c r="D152" s="170" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="E152" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D152&lt;&gt;"""",SPLIT(D152,"" 
@@ -14010,7 +14031,7 @@
         <v>-0.00408356</v>
       </c>
       <c r="D153" s="170" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="E153" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D153&lt;&gt;"""",SPLIT(D153,"" 
@@ -14036,7 +14057,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D154" s="170" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="E154" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D154&lt;&gt;"""",SPLIT(D154,"" 
@@ -14070,7 +14091,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D155" s="170" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="E155" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D155&lt;&gt;"""",SPLIT(D155,"" 
@@ -14104,7 +14125,7 @@
         <v/>
       </c>
       <c r="D156" s="170" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="E156" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D156&lt;&gt;"""",SPLIT(D156,"" 
@@ -14132,7 +14153,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D157" s="170" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="E157" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D157&lt;&gt;"""",SPLIT(D157,"" 
@@ -14166,7 +14187,7 @@
         <v>0.022496956</v>
       </c>
       <c r="D158" s="170" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="E158" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D158&lt;&gt;"""",SPLIT(D158,"" 
@@ -14192,7 +14213,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D159" s="170" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="E159" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D159&lt;&gt;"""",SPLIT(D159,"" 
@@ -14226,7 +14247,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D160" s="170" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="E160" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D160&lt;&gt;"""",SPLIT(D160,"" 
@@ -14260,7 +14281,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D161" s="170" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="E161" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D161&lt;&gt;"""",SPLIT(D161,"" 
@@ -14294,7 +14315,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D162" s="170" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="E162" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D162&lt;&gt;"""",SPLIT(D162,"" 
@@ -14328,7 +14349,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D163" s="170" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="E163" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D163&lt;&gt;"""",SPLIT(D163,"" 
@@ -14362,7 +14383,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D164" s="170" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E164" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D164&lt;&gt;"""",SPLIT(D164,"" 
@@ -14388,7 +14409,7 @@
         <v/>
       </c>
       <c r="D165" s="170" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="E165" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D165&lt;&gt;"""",SPLIT(D165,"" 
@@ -14414,7 +14435,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D166" s="170" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E166" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D166&lt;&gt;"""",SPLIT(D166,"" 
@@ -14440,7 +14461,7 @@
         <v/>
       </c>
       <c r="D167" s="170" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="E167" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D167&lt;&gt;"""",SPLIT(D167,"" 
@@ -14468,7 +14489,7 @@
         <v/>
       </c>
       <c r="D168" s="170" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="E168" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D168&lt;&gt;"""",SPLIT(D168,"" 
@@ -14496,7 +14517,7 @@
         <v>-0.0085012</v>
       </c>
       <c r="D169" s="170" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="E169" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D169&lt;&gt;"""",SPLIT(D169,"" 
@@ -14522,7 +14543,7 @@
         <v>-0.02991348</v>
       </c>
       <c r="D170" s="170" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="E170" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D170&lt;&gt;"""",SPLIT(D170,"" 
@@ -14548,7 +14569,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D171" s="170" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="E171" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D171&lt;&gt;"""",SPLIT(D171,"" 
@@ -14582,7 +14603,7 @@
         <v>-0.00204428</v>
       </c>
       <c r="D172" s="170" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E172" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D172&lt;&gt;"""",SPLIT(D172,"" 
@@ -14608,7 +14629,7 @@
         <v/>
       </c>
       <c r="D173" s="170" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E173" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D173&lt;&gt;"""",SPLIT(D173,"" 
@@ -14636,7 +14657,7 @@
         <v>-0.01077908</v>
       </c>
       <c r="D174" s="170" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E174" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D174&lt;&gt;"""",SPLIT(D174,"" 
@@ -14670,7 +14691,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D175" s="170" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="E175" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D175&lt;&gt;"""",SPLIT(D175,"" 
@@ -14704,7 +14725,7 @@
         <v/>
       </c>
       <c r="D176" s="170" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="E176" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D176&lt;&gt;"""",SPLIT(D176,"" 
@@ -14732,7 +14753,7 @@
         <v>-0.000005</v>
       </c>
       <c r="D177" s="170" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="E177" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D177&lt;&gt;"""",SPLIT(D177,"" 
@@ -14766,7 +14787,7 @@
         <v/>
       </c>
       <c r="D178" s="170" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="E178" s="94">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D178&lt;&gt;"""",SPLIT(D178,"" 
@@ -33722,58 +33743,58 @@
       </c>
       <c r="C2" s="30">
         <f>Dashboard!$D$8*$B$2</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="D2" s="32">
         <f>SUM(OFFSET(D:D,ROW()+1,0,ROWS(D:D)))*Dashboard!$D$10/Dashboard!$C$10</f>
-        <v>115.8213953</v>
+        <v>125.9897066</v>
       </c>
       <c r="E2" s="33">
         <f>SUM(OFFSET(E:E,ROW()+1,0,ROWS(E:E)))*Dashboard!$D$10/Dashboard!$C$10</f>
-        <v>810.749767</v>
+        <v>881.9279462</v>
       </c>
       <c r="F2" s="33">
         <f>SUM(OFFSET(F:F,ROW()+1,0,ROWS(F:F)))*Dashboard!$D$10/Dashboard!$C$10</f>
-        <v>3525.313719</v>
+        <v>3834.811695</v>
       </c>
       <c r="G2" s="33">
         <f>SUM(OFFSET(G:G,ROW()+1,0,ROWS(G:G)))*Dashboard!$D$10/Dashboard!$C$10</f>
-        <v>42303.76463</v>
+        <v>46017.74033</v>
       </c>
       <c r="H2" s="34">
         <f>SUM(OFFSET(H:H,ROW()+1,0,ROWS(H:H)))*Dashboard!$D$10/Dashboard!$C$10</f>
-        <v>578.0643522</v>
+        <v>1264.007319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="37"/>
       <c r="B3" s="37">
         <f>$G$3/$C$3</f>
-        <v>0.2854088501</v>
+        <v>0.2912498346</v>
       </c>
       <c r="C3" s="38">
         <f>Dashboard!$C$8*$B$2</f>
-        <v>144513.1236</v>
+        <v>156210.7646</v>
       </c>
       <c r="D3" s="39">
         <f t="shared" ref="D3:H3" si="1">SUM(OFFSET(D:D,ROW(),0,ROWS(D:D)))</f>
-        <v>112.923544</v>
+        <v>124.5622432</v>
       </c>
       <c r="E3" s="40">
         <f t="shared" si="1"/>
-        <v>790.4648078</v>
+        <v>871.9357025</v>
       </c>
       <c r="F3" s="40">
         <f t="shared" si="1"/>
-        <v>3437.11037</v>
+        <v>3791.363278</v>
       </c>
       <c r="G3" s="40">
         <f t="shared" si="1"/>
-        <v>41245.32444</v>
+        <v>45496.35934</v>
       </c>
       <c r="H3" s="41">
         <f t="shared" si="1"/>
-        <v>563.6011821</v>
+        <v>1249.686116</v>
       </c>
     </row>
     <row r="4">
@@ -33782,32 +33803,32 @@
         <v>Friktion High (fcSOLHigh)</v>
       </c>
       <c r="B4" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("MAXIFS(Token!$E:$E,Token!$A:$A,INDEX(SPLIT($A4,""()""),2))"),0.2854088500968116)</f>
-        <v>0.2854088501</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("MAXIFS(Token!$E:$E,Token!$A:$A,INDEX(SPLIT($A4,""()""),2))"),0.2912498345862459)</f>
+        <v>0.2912498346</v>
       </c>
       <c r="C4" s="6">
         <f>MAXIFS(Dashboard!$C:$C,Dashboard!$A:$A,$A4)*IF($B$2&lt;&gt;"",$B$2,1)</f>
-        <v>144513.1236</v>
+        <v>156210.7646</v>
       </c>
       <c r="D4" s="43">
         <f t="shared" ref="D4:D5" si="2">$G4/365.25</f>
-        <v>112.923544</v>
+        <v>124.5622432</v>
       </c>
       <c r="E4" s="44">
         <f t="shared" ref="E4:E5" si="3">$G4/365.25*7</f>
-        <v>790.4648078</v>
+        <v>871.9357025</v>
       </c>
       <c r="F4" s="44">
         <f t="shared" ref="F4:F5" si="4">$G4/12</f>
-        <v>3437.11037</v>
+        <v>3791.363278</v>
       </c>
       <c r="G4" s="44">
         <f t="shared" ref="G4:G5" si="5">INDEX($B:$B,ROW())*INDEX($C:$C,ROW())</f>
-        <v>41245.32444</v>
+        <v>45496.35934</v>
       </c>
       <c r="H4" s="45">
         <f t="array" ref="H4">C4*INDEX(Price!$J:$J,2)/100</f>
-        <v>563.6011821</v>
+        <v>1249.686116</v>
       </c>
     </row>
     <row r="5">
@@ -33815,8 +33836,8 @@
         <v>19</v>
       </c>
       <c r="B5" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("MAXIFS(Token!$E:$E,Token!$A:$A,INDEX(SPLIT($A5,""()""),2))"),0.22911018055655089)</f>
-        <v>0.2291101806</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("MAXIFS(Token!$E:$E,Token!$A:$A,INDEX(SPLIT($A5,""()""),2))"),0.24609364557601823)</f>
+        <v>0.2460936456</v>
       </c>
       <c r="C5" s="6">
         <f>MAXIFS(Dashboard!$C:$C,Dashboard!$A:$A,$A5)*IF($B$2&lt;&gt;"",$B$2,1)</f>
@@ -33934,31 +33955,31 @@
     <row r="2">
       <c r="A2" s="56">
         <f>NOW()-TIME(1,0,0)</f>
-        <v>44869.06264</v>
+        <v>44869.65987</v>
       </c>
       <c r="B2" s="57">
         <f t="array" ref="B2">INDEX($U:$U,ROW())/INDEX($T:$T,ROW())*INDEX($B:$B,ROWS($B:$B))</f>
-        <v>2.593152849</v>
+        <v>2.803056076</v>
       </c>
       <c r="C2" s="8">
         <f t="array" ref="C2">INDEX(D:D,ROW())-INDEX(D:D,ROW()+1)</f>
-        <v>0.002248482905</v>
+        <v>0.04006888405</v>
       </c>
       <c r="D2" s="58">
         <f t="array" ref="D2">-1+INDEX(B:B,ROW())/INDEX(B:B,ROWS(B:B))</f>
-        <v>-0.5327652524</v>
+        <v>-0.4949448512</v>
       </c>
       <c r="E2" s="59">
         <f>Dashboard!$C$10</f>
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="F2" s="8">
         <f t="array" ref="F2">INDEX(G:G,ROW())-INDEX(G:G,ROW()+1)</f>
-        <v>0.002641518609</v>
+        <v>0.0450819176</v>
       </c>
       <c r="G2" s="58">
         <f t="array" ref="G2">-1+INDEX(E:E,ROW())/INDEX(P:P,ROW())</f>
-        <v>-0.451092433</v>
+        <v>-0.408652034</v>
       </c>
       <c r="H2" s="6">
         <f>SUMIFS(Dashboard!$C$6,Dashboard!$A$6,IF(H$1="Stable","=","&lt;&gt;")&amp;"USD*")</f>
@@ -33986,11 +34007,11 @@
       </c>
       <c r="N2" s="60">
         <f t="shared" ref="N2:O2" si="1">C2-F2</f>
-        <v>-0.0003930357043</v>
+        <v>-0.005013033551</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" si="1"/>
-        <v>-0.08167281936</v>
+        <v>-0.08629281721</v>
       </c>
       <c r="P2" s="6">
         <f>SUMIFS(OFFSET(Transfer!$F:$F,2,0),OFFSET(Transfer!$A:$A,2,0),"&lt;="&amp;$A2)/SUMIFS(OFFSET(Transfer!$G:$G,2,0),OFFSET(Transfer!$A:$A,2,0),"&lt;="&amp;$A2)</f>
@@ -33998,7 +34019,7 @@
       </c>
       <c r="Q2" s="61">
         <f>$U2/$E2</f>
-        <v>4636.288855</v>
+        <v>4651.898885</v>
       </c>
       <c r="R2" s="61">
         <f>SUMIFS(OFFSET(Transfer!$G:$G,2,0),OFFSET(Transfer!$A:$A,2,0),"&lt;="&amp;$A2)</f>
@@ -34006,7 +34027,7 @@
       </c>
       <c r="S2" s="8">
         <f>(Q2-R2)/R2</f>
-        <v>-0.143101392</v>
+        <v>-0.14021628</v>
       </c>
       <c r="T2" s="6">
         <f>SUMIFS(OFFSET(Transfer!$E:$E,2,0),OFFSET(Transfer!$A:$A,2,0),"&lt;="&amp;$A2)</f>
@@ -34014,11 +34035,11 @@
       </c>
       <c r="U2" s="6">
         <f>Dashboard!$C$8</f>
-        <v>144513.1236</v>
+        <v>156210.7646</v>
       </c>
       <c r="V2" s="6">
         <f>$U2-$T2</f>
-        <v>-164781.3464</v>
+        <v>-153083.7054</v>
       </c>
     </row>
     <row r="3">
@@ -51981,18 +52002,18 @@
       </c>
       <c r="B2" s="97" t="str">
         <f>ImportJSON("https://public-api.solscan.io/account/"&amp;$F$2&amp;PriceCache!$D$2,"/lamports","noHeaders")</f>
-        <v>34895000</v>
+        <v>96685520</v>
       </c>
       <c r="C2" s="97">
         <v>8.0</v>
       </c>
       <c r="D2" s="94">
         <f>$B2/POW(10,$C2)</f>
-        <v>0.34895</v>
+        <v>0.9668552</v>
       </c>
       <c r="E2" s="94">
         <f>D2</f>
-        <v>0.34895</v>
+        <v>0.9668552</v>
       </c>
       <c r="F2" s="96" t="s">
         <v>50</v>
@@ -52024,72 +52045,72 @@
       <c r="C3" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="94">
-        <v>0.0</v>
+      <c r="D3" s="94" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="94">
         <v>0.0</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="94" t="s">
         <v>52</v>
@@ -52098,313 +52119,313 @@
         <v>0.0</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F5" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="94" t="s">
-        <v>62</v>
-      </c>
       <c r="H5" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" s="98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="94" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="95" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="94">
         <v>0.0</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="95" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" s="94">
         <v>0.0</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="94" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="94">
         <v>0.0</v>
       </c>
       <c r="E8" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="95" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="94">
         <v>0.0</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="94" t="s">
         <v>82</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="94" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="95" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="94">
         <v>0.0</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="95" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" s="94">
         <v>0.0</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="95" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="94">
         <v>0.0</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I11" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="95" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="94">
         <v>0.0</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G12" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C14" s="94" t="s">
         <v>52</v>
@@ -52413,33 +52434,33 @@
         <v>0.0</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" s="94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C15" s="94" t="s">
         <v>52</v>
@@ -52448,25 +52469,25 @@
         <v>0.0</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H15" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I15" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -52528,28 +52549,28 @@
         <v>20</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H1" s="101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I1" s="102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J1" s="102" t="s">
         <v>11</v>
@@ -52593,7 +52614,7 @@
       </c>
       <c r="J2" s="106">
         <f>SUM(OFFSET(J:J,2,0))</f>
-        <v>-138593.9189</v>
+        <v>-125554.5044</v>
       </c>
     </row>
     <row r="3">
@@ -52630,7 +52651,7 @@
       </c>
       <c r="J3" s="111">
         <f>$G3*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F3</f>
-        <v>4625.948227</v>
+        <v>1449.727364</v>
       </c>
     </row>
     <row r="4">
@@ -52667,7 +52688,7 @@
       </c>
       <c r="J4" s="111">
         <f>$G4*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F4</f>
-        <v>-11001.04927</v>
+        <v>-8472.19304</v>
       </c>
     </row>
     <row r="5">
@@ -52704,7 +52725,7 @@
       </c>
       <c r="J5" s="111">
         <f>$G5*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F5</f>
-        <v>-18498.29758</v>
+        <v>-12239.57272</v>
       </c>
     </row>
     <row r="6">
@@ -52741,7 +52762,7 @@
       </c>
       <c r="J6" s="111">
         <f>$G6*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F6</f>
-        <v>-4013.878627</v>
+        <v>-2301.764027</v>
       </c>
     </row>
     <row r="7">
@@ -52778,7 +52799,7 @@
       </c>
       <c r="J7" s="111">
         <f>$G7*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F7</f>
-        <v>-9166.236417</v>
+        <v>-6624.161646</v>
       </c>
     </row>
     <row r="8">
@@ -52815,7 +52836,7 @@
       </c>
       <c r="J8" s="111">
         <f>$G8*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F8</f>
-        <v>-90.17451388</v>
+        <v>-80.63454117</v>
       </c>
     </row>
     <row r="9">
@@ -52852,7 +52873,7 @@
       </c>
       <c r="J9" s="111">
         <f>$G9*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F9</f>
-        <v>-204.6052263</v>
+        <v>-180.3146551</v>
       </c>
     </row>
     <row r="10">
@@ -52889,7 +52910,7 @@
       </c>
       <c r="J10" s="111">
         <f>$G10*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F10</f>
-        <v>-1224.50994</v>
+        <v>-1156.824872</v>
       </c>
     </row>
     <row r="11">
@@ -52926,7 +52947,7 @@
       </c>
       <c r="J11" s="111">
         <f>$G11*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F11</f>
-        <v>-67793.62043</v>
+        <v>-65638.46115</v>
       </c>
     </row>
     <row r="12">
@@ -52963,7 +52984,7 @@
       </c>
       <c r="J12" s="111">
         <f>$G12*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F12</f>
-        <v>-18231.63232</v>
+        <v>-17813.49154</v>
       </c>
     </row>
     <row r="13">
@@ -53000,7 +53021,7 @@
       </c>
       <c r="J13" s="111">
         <f>$G13*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F13</f>
-        <v>-852.9028711</v>
+        <v>-833.7606108</v>
       </c>
     </row>
     <row r="14">
@@ -53037,7 +53058,7 @@
       </c>
       <c r="J14" s="111">
         <f>$G14*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F14</f>
-        <v>-850.5718703</v>
+        <v>-830.9745643</v>
       </c>
     </row>
     <row r="15">
@@ -53074,7 +53095,7 @@
       </c>
       <c r="J15" s="111">
         <f>$G15*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F15</f>
-        <v>-823.9814208</v>
+        <v>-802.7452405</v>
       </c>
     </row>
     <row r="16">
@@ -53111,7 +53132,7 @@
       </c>
       <c r="J16" s="111">
         <f>$G16*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F16</f>
-        <v>-829.0470896</v>
+        <v>-807.6643468</v>
       </c>
     </row>
     <row r="17">
@@ -53148,7 +53169,7 @@
       </c>
       <c r="J17" s="111">
         <f>$G17*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F17</f>
-        <v>-739.8845239</v>
+        <v>-713.7715898</v>
       </c>
     </row>
     <row r="18">
@@ -53185,7 +53206,7 @@
       </c>
       <c r="J18" s="111">
         <f>$G18*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F18</f>
-        <v>-710.7921396</v>
+        <v>-682.9315386</v>
       </c>
     </row>
     <row r="19">
@@ -53222,7 +53243,7 @@
       </c>
       <c r="J19" s="111">
         <f>$G19*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F19</f>
-        <v>-718.1577</v>
+        <v>-689.9607</v>
       </c>
     </row>
     <row r="20">
@@ -53259,7 +53280,7 @@
       </c>
       <c r="J20" s="111">
         <f>$G20*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F20</f>
-        <v>-696.31558</v>
+        <v>-665.99778</v>
       </c>
     </row>
     <row r="21">
@@ -53296,7 +53317,7 @@
       </c>
       <c r="J21" s="111">
         <f>$G21*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F21</f>
-        <v>-555.705</v>
+        <v>-532.7136</v>
       </c>
     </row>
     <row r="22">
@@ -53333,7 +53354,7 @@
       </c>
       <c r="J22" s="111">
         <f>$G22*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F22</f>
-        <v>-668.4754</v>
+        <v>-637.4105</v>
       </c>
     </row>
     <row r="23">
@@ -53370,7 +53391,7 @@
       </c>
       <c r="J23" s="111">
         <f>$G23*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F23</f>
-        <v>-654.0783</v>
+        <v>-622.0976</v>
       </c>
     </row>
     <row r="24">
@@ -53407,7 +53428,7 @@
       </c>
       <c r="J24" s="111">
         <f>$G24*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F24</f>
-        <v>-649.44</v>
+        <v>-617.628</v>
       </c>
     </row>
     <row r="25">
@@ -53444,7 +53465,7 @@
       </c>
       <c r="J25" s="111">
         <f>$G25*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F25</f>
-        <v>-678.062</v>
+        <v>-646.5151</v>
       </c>
     </row>
     <row r="26">
@@ -53481,7 +53502,7 @@
       </c>
       <c r="J26" s="111">
         <f>$G26*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F26</f>
-        <v>-662.5338</v>
+        <v>-631.0592</v>
       </c>
     </row>
     <row r="27">
@@ -53518,7 +53539,7 @@
       </c>
       <c r="J27" s="111">
         <f>$G27*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F27</f>
-        <v>-693.1197</v>
+        <v>-663.9828</v>
       </c>
     </row>
     <row r="28">
@@ -53555,7 +53576,7 @@
       </c>
       <c r="J28" s="111">
         <f>$G28*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F28</f>
-        <v>-673.2176</v>
+        <v>-642.466</v>
       </c>
     </row>
     <row r="29">
@@ -53592,7 +53613,7 @@
       </c>
       <c r="J29" s="111">
         <f>$G29*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F29</f>
-        <v>-688.1016</v>
+        <v>-658.5309</v>
       </c>
     </row>
     <row r="30">
@@ -53629,7 +53650,7 @@
       </c>
       <c r="J30" s="111">
         <f>$G30*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F30</f>
-        <v>-694.7785</v>
+        <v>-665.8344</v>
       </c>
     </row>
     <row r="31">
@@ -53666,7 +53687,7 @@
       </c>
       <c r="J31" s="111">
         <f>$G31*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F31</f>
-        <v>-38.8368</v>
+        <v>-37.1016</v>
       </c>
     </row>
     <row r="32">
@@ -53703,7 +53724,7 @@
       </c>
       <c r="J32" s="111">
         <f>$G32*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F32</f>
-        <v>-3.6946</v>
+        <v>-3.5259</v>
       </c>
     </row>
     <row r="33">
@@ -53740,7 +53761,7 @@
       </c>
       <c r="J33" s="111">
         <f>$G33*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F33</f>
-        <v>-29.712</v>
+        <v>-28.5552</v>
       </c>
     </row>
     <row r="34">
@@ -53777,7 +53798,7 @@
       </c>
       <c r="J34" s="111">
         <f>$G34*HLOOKUP("*(SOL)*",Price!$A:$CF,2,0)-$F34</f>
-        <v>-84.4543</v>
+        <v>-81.5864</v>
       </c>
     </row>
   </sheetData>
@@ -53818,22 +53839,22 @@
         <v>20</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="115" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="115" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="115" t="s">
         <v>19</v>
@@ -53858,35 +53879,35 @@
     <row r="2">
       <c r="A2" s="56">
         <f>NOW()-TIME(1,0,0)</f>
-        <v>44869.06264</v>
+        <v>44869.65987</v>
       </c>
       <c r="B2" s="117">
         <f t="array" ref="B2:L2">TRANSPOSE(OFFSET(PriceCache!B:B,1,0))</f>
-        <v>0.97498</v>
+        <v>0.98867</v>
       </c>
       <c r="C2" s="69">
-        <v>31.17</v>
+        <v>33.58</v>
       </c>
       <c r="D2" s="118">
         <v>1.0</v>
       </c>
       <c r="E2" s="118">
-        <v>1.23159729464035</v>
+        <v>1.2336689777266</v>
       </c>
       <c r="F2" s="118">
-        <v>1.19691452491279</v>
+        <v>1.20094444439626</v>
       </c>
       <c r="G2" s="118">
         <v>1.00498289003119</v>
       </c>
       <c r="H2" s="118">
-        <v>1.13047205354076</v>
+        <v>1.14014367769969</v>
       </c>
       <c r="I2" s="73">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="J2" s="73">
-        <v>0.39</v>
+        <v>0.8</v>
       </c>
       <c r="K2" s="73">
         <v>0.0</v>
@@ -62730,7 +62751,7 @@
         <v>Profit</v>
       </c>
       <c r="J1" s="133" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" s="133" t="s">
         <v>26</v>
@@ -62752,36 +62773,36 @@
         <v>-1939.0069367545923</v>
       </c>
       <c r="D2" s="134">
-        <v>311.1607574853697</v>
+        <v>-5066.739218256407</v>
       </c>
       <c r="E2" s="134">
-        <v>-142150.52504286193</v>
+        <v>-126993.33892787431</v>
       </c>
       <c r="F2" s="134">
         <f>Dashboard!$D$8</f>
-        <v>148221.6288</v>
+        <v>158000.9149</v>
       </c>
       <c r="G2" s="134">
         <f t="array" ref="G2:I2">TRANSPOSE(Dashboard!$D$9:$D$11)</f>
-        <v>58.24275066</v>
+        <v>57.43626998</v>
       </c>
       <c r="H2" s="134">
-        <v>31.969886561775624</v>
+        <v>33.96482142676525</v>
       </c>
       <c r="I2" s="134">
-        <v>-143778.37122213113</v>
+        <v>-133999.08508288529</v>
       </c>
       <c r="J2" s="135">
         <f>Dashboard!$E$11</f>
-        <v>-0.5327652524</v>
+        <v>-0.4949448512</v>
       </c>
       <c r="K2" s="134">
         <f t="shared" ref="K2:L2" si="1">INDEX(I:I,ROW())-INDEX(I:I,ROW()+1)</f>
-        <v>-13791.59448</v>
+        <v>-4012.308344</v>
       </c>
       <c r="L2" s="135">
         <f t="shared" si="1"/>
-        <v>-0.0502111106</v>
+        <v>-0.01239070946</v>
       </c>
     </row>
     <row r="3">
@@ -63151,48 +63172,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="136" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="136" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="137" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="138" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" s="139" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="133" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I1" s="133" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J1" s="140" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="141">
         <v>1.0</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="60" t="str">
         <f t="shared" ref="E2:E10" si="1">IF($H2&lt;&gt;"",$F2/$H2*365.25,)</f>
@@ -63217,17 +63238,17 @@
     </row>
     <row r="3">
       <c r="A3" s="145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="146" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="9">
         <f t="array" ref="C3">ROUNDDOWN(1/INDEX(Price!$B:$B,2),2)</f>
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="60" t="str">
         <f t="shared" si="1"/>
@@ -63238,7 +63259,7 @@
         <v/>
       </c>
       <c r="G3" s="67">
-        <v>0.0</v>
+        <v>169.802356</v>
       </c>
       <c r="H3" s="148"/>
       <c r="I3" s="143" t="str">
@@ -63247,22 +63268,22 @@
       </c>
       <c r="J3" s="144">
         <f>IFERROR(VLOOKUP($D3,Wallet!$A:$E,5,FALSE)*1,)</f>
-        <v>0</v>
+        <v>169.802356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="146" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="9">
         <f t="array" ref="C4">ROUNDDOWN(1/INDEX(Price!$B:$B,2),2)</f>
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="60" t="str">
         <f t="shared" si="1"/>
@@ -63290,11 +63311,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="9">
         <f>Dashboard!$D$10</f>
-        <v>31.96988656</v>
+        <v>33.96482143</v>
       </c>
       <c r="D5" s="96" t="s">
         <v>49</v>
@@ -63308,7 +63329,7 @@
         <v/>
       </c>
       <c r="G5" s="67">
-        <v>0.34895</v>
+        <v>0.9668552</v>
       </c>
       <c r="H5" s="148"/>
       <c r="I5" s="143" t="str">
@@ -63317,22 +63338,22 @@
       </c>
       <c r="J5" s="144">
         <f>IFERROR(VLOOKUP($D5,Wallet!$A:$E,5,FALSE)*1,)</f>
-        <v>0.34895</v>
+        <v>0.9668552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="97" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="24">
         <f>HLOOKUP("*("&amp;$A6&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)*$C$3</f>
-        <v>1.025082548</v>
+        <v>1.015032719</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="60">
         <f t="shared" si="1"/>
@@ -63360,25 +63381,25 @@
     </row>
     <row r="7">
       <c r="A7" s="97" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" s="24">
         <f>HLOOKUP("*("&amp;$A7&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)*$C$3</f>
-        <v>1.153081495</v>
+        <v>1.151545114</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="60">
         <f t="shared" si="1"/>
-        <v>0.2291101806</v>
+        <v>0.2460936456</v>
       </c>
       <c r="F7" s="64">
         <f>IF($H7&lt;&gt;"",HLOOKUP("*("&amp;$A7&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)-1,)</f>
-        <v>0.1304720535</v>
+        <v>0.1401436777</v>
       </c>
       <c r="G7" s="67">
         <v>0.0</v>
@@ -63398,25 +63419,25 @@
     </row>
     <row r="8">
       <c r="A8" s="97" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C8" s="24">
         <f>HLOOKUP("*("&amp;$A8&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)*$C$5</f>
-        <v>39.3740258</v>
+        <v>41.90134653</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="60">
         <f t="shared" si="1"/>
-        <v>0.2685425774</v>
+        <v>0.2709447432</v>
       </c>
       <c r="F8" s="64">
         <f>IF($H8&lt;&gt;"",HLOOKUP("*("&amp;$A8&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)-1,)</f>
-        <v>0.2315972946</v>
+        <v>0.2336689777</v>
       </c>
       <c r="G8" s="67">
         <v>0.0</v>
@@ -63436,25 +63457,25 @@
     </row>
     <row r="9">
       <c r="A9" s="97" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" s="24">
         <f>HLOOKUP("*("&amp;$A9&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)*$C$5</f>
-        <v>38.26522159</v>
+        <v>40.7898636</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="60">
         <f t="shared" si="1"/>
-        <v>0.2854088501</v>
+        <v>0.2912498346</v>
       </c>
       <c r="F9" s="64">
         <f>IF($H9&lt;&gt;"",HLOOKUP("*("&amp;$A9&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)-1,)</f>
-        <v>0.1969145249</v>
+        <v>0.2009444444</v>
       </c>
       <c r="G9" s="67">
         <v>3873.533789587</v>
@@ -63474,17 +63495,17 @@
     </row>
     <row r="10">
       <c r="A10" s="97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="24">
         <f>HLOOKUP("*("&amp;$A10&amp;")*",OFFSET(Price!A:A,0,0,2,10),2,FALSE)*$C$2</f>
         <v>1</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="60">
         <f t="shared" si="1"/>
@@ -63528,42 +63549,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="149" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="149" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="149" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="149" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="149" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="149" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="149" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="149" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -63573,7 +63594,7 @@
     </row>
     <row r="10">
       <c r="A10" s="149" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -63583,7 +63604,7 @@
     </row>
     <row r="12">
       <c r="A12" s="149" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -63593,7 +63614,7 @@
     </row>
     <row r="14">
       <c r="A14" s="149" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -63603,7 +63624,7 @@
     </row>
     <row r="16">
       <c r="A16" s="149" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -63618,7 +63639,7 @@
     </row>
     <row r="19">
       <c r="A19" s="149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -63633,289 +63654,289 @@
     </row>
     <row r="22">
       <c r="A22" s="149" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="149" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="149" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="149" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="149" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B27" s="149" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C27" s="149" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D27" s="149" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E27" s="149" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F27" s="149" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="149" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C28" s="149" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D28" s="149" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="149" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="149" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="149" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B30" s="149" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C30" s="149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D30" s="149" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F30" s="149" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="149" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F31" s="149" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="149" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="149" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B33" s="149" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F33" s="149" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B34" s="149" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C34" s="149" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D34" s="149" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F34" s="149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C35" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="149" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="149" t="s">
         <v>187</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="149" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C36" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="149" t="s">
         <v>187</v>
-      </c>
-      <c r="D36" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="149" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C37" s="149" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F37" s="149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F38" s="149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F39" s="149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F40" s="149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="151" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="149" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="149" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44">
